--- a/code/results/userStudies_exp2_results/analysis_objective.xlsx
+++ b/code/results/userStudies_exp2_results/analysis_objective.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="70">
   <si>
     <t xml:space="preserve">EXP-2</t>
   </si>
@@ -65,6 +65,12 @@
     <t xml:space="preserve">moving_avg_reward</t>
   </si>
   <si>
+    <t xml:space="preserve">total_regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moving_avg_regret</t>
+  </si>
+  <si>
     <t xml:space="preserve">success_rate</t>
   </si>
   <si>
@@ -74,10 +80,19 @@
     <t xml:space="preserve">humans_contribution</t>
   </si>
   <si>
+    <t xml:space="preserve">moving_avg_human_contr</t>
+  </si>
+  <si>
     <t xml:space="preserve">human_success_rate</t>
   </si>
   <si>
     <t xml:space="preserve">moving_avg_human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task_efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moving_avg_efficiency</t>
   </si>
   <si>
     <t xml:space="preserve">Task Number</t>
@@ -86,16 +101,52 @@
     <t xml:space="preserve">total_warnings</t>
   </si>
   <si>
+    <t xml:space="preserve">std_warnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_moving_warnings</t>
+  </si>
+  <si>
     <t xml:space="preserve">total success rates in time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_moving_success</t>
   </si>
   <si>
     <t xml:space="preserve">Humans-contribution</t>
   </si>
   <si>
+    <t xml:space="preserve">std_moving_contribution</t>
+  </si>
+  <si>
     <t xml:space="preserve">moving_avg_human_success</t>
   </si>
   <si>
+    <t xml:space="preserve">std_moving_humanSuccess</t>
+  </si>
+  <si>
     <t xml:space="preserve">total_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_total_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_moving_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_moving_reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_total_regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_efficiency</t>
   </si>
   <si>
     <t xml:space="preserve">Part-0</t>
@@ -219,7 +270,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +281,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,19 +333,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,6 +362,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -309,45 +430,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD82"/>
+  <dimension ref="A1:AZ82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB39" activeCellId="0" sqref="AB39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K117" activeCellId="0" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.1836734693878"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.3979591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.5102040816327"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.1581632653061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="27.6122448979592"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.969387755102"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="22.0561224489796"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.6632653061224"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="23.2704081632653"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.5408163265306"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="35" min="33" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="40" min="39" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="42" min="41" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="10.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,19 +499,39 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="T1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -436,2625 +585,4141 @@
       <c r="Q2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="T2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AV2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>13</v>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="0" t="n">
         <f aca="false">AVERAGE(D3:D3)</f>
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="0" t="n">
         <v>189.188177375</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="0" t="n">
         <v>189.188177375</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="0" t="n">
         <v>189.188177375</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="0" t="n">
         <v>-23.3409391038565</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="0" t="n">
         <v>-23.3409391038565</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="0" t="n">
         <v>-23.3409391038565</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="0" t="n">
+        <f aca="false">28.95-K3</f>
+        <v>52.2909391038565</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">28.95-L3</f>
+        <v>52.2909391038565</v>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="P3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="Q3" s="0" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="R3" s="0" t="n">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="T3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
+        <f aca="false">(O3*Q3)/10000</f>
+        <v>0.1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">(P3*R3)/10000</f>
+        <v>0.1</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6" t="n">
         <f aca="false">AVERAGE(C45,C51,C59,C67,C75)</f>
         <v>9.8</v>
       </c>
-      <c r="U3" s="0" t="n">
-        <f aca="false">AVERAGE(D45,D51,D59,D67,D75)</f>
+      <c r="Z3" s="6" t="n">
+        <v>6.64830805543787</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <f aca="false">Y3</f>
         <v>9.8</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="AB3" s="6" t="n">
+        <f aca="false">STDEV(D45,D51,D59,D67,D75)</f>
+        <v>6.64830805543787</v>
+      </c>
+      <c r="AC3" s="0" t="n">
         <f aca="false">AVERAGE(E45,E51,E59,E67,E75)</f>
         <v>78</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="AD3" s="6" t="n">
         <f aca="false">AVERAGE(F45,F51,F59,F67,F75)</f>
         <v>78</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="AE3" s="6" t="n">
+        <f aca="false">STDEV(F45,F51,F59,F67,F75)</f>
+        <v>17.8885438199983</v>
+      </c>
+      <c r="AF3" s="0" t="n">
         <f aca="false">AVERAGE(G45,G51,G59,G67,G75)</f>
         <v>42.8333333333333</v>
       </c>
-      <c r="Y3" s="0" t="n">
-        <f aca="false">AVERAGE(H45,H51,H59,H67,H75)</f>
-        <v>62</v>
-      </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AG3" s="6" t="n">
+        <f aca="false">AF3</f>
+        <v>42.8333333333333</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <f aca="false">STDEV(H45,H51,H59,H67,H75)</f>
+        <v>20.4090121705529</v>
+      </c>
+      <c r="AI3" s="0" t="n">
         <f aca="false">AVERAGE(I45,I51,I59,I67,I75)</f>
         <v>62</v>
       </c>
-      <c r="AA3" s="0" t="n">
-        <f aca="false">AVERAGE(J45,J51,J59,J67,J75)</f>
-        <v>205.488167504</v>
-      </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AJ3" s="6" t="n">
+        <f aca="false">AVERAGE(AI3)</f>
+        <v>62</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <f aca="false">STDEV(J45,J51,J59,J67,J75)</f>
+        <v>27.9732014613987</v>
+      </c>
+      <c r="AL3" s="0" t="n">
         <f aca="false">AVERAGE(K45,K51,K59,K67,K75)</f>
         <v>205.488167504</v>
       </c>
-      <c r="AC3" s="0" t="n">
-        <f aca="false">AVERAGE(L45,L51,L59,L67,L75)</f>
-        <v>2.03341417087636</v>
-      </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
+        <f aca="false">STDEV(K45,K51,K59,K67,K75)</f>
+        <v>39.5149588650274</v>
+      </c>
+      <c r="AN3" s="6" t="n">
+        <f aca="false">AVERAGE(AL3)</f>
+        <v>205.488167504</v>
+      </c>
+      <c r="AO3" s="6" t="n">
+        <f aca="false">STDEV(L45,L51,L59,L67,L75)</f>
+        <v>39.5149588650274</v>
+      </c>
+      <c r="AP3" s="0" t="n">
         <f aca="false">AVERAGE(M45,M51,M59,M67,M75)</f>
-        <v>2.03341417087636</v>
+        <v>2.03341417087634</v>
+      </c>
+      <c r="AQ3" s="6" t="n">
+        <f aca="false">AVERAGE(AP3)</f>
+        <v>2.03341417087634</v>
+      </c>
+      <c r="AR3" s="6" t="n">
+        <f aca="false">STDEV(N45,N51,N59,N67,N75)</f>
+        <v>25.0929294588961</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <f aca="false">AVERAGE(O45,O51,O59,O67,O75)</f>
+        <v>26.9165858291237</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <f aca="false">STDEV(O45,O51,O59,O67,O75)</f>
+        <v>25.0929294588961</v>
+      </c>
+      <c r="AU3" s="6" t="n">
+        <v>26.9165858291237</v>
+      </c>
+      <c r="AV3" s="6" t="n">
+        <f aca="false">STDEV(P45,P51,P59,P67,P75)</f>
+        <v>25.0929294588961</v>
+      </c>
+      <c r="AW3" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AX3" s="6" t="n">
+        <f aca="false">AVERAGE(R45,R51,R59,R67,R75)</f>
+        <v>0.34</v>
+      </c>
+      <c r="AY3" s="6" t="n">
+        <f aca="false">AW3</f>
+        <v>0.34</v>
+      </c>
+      <c r="AZ3" s="6" t="n">
+        <f aca="false">STDEV(Q45,Q51,Q59,Q67,Q75)</f>
+        <v>0.181659021245849</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <f aca="false">AVERAGE(D3:D4)</f>
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>133.41330375</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="0" t="n">
         <v>133.41330375</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="0" t="n">
         <f aca="false">AVERAGE(H3:H4)</f>
         <v>161.3007405625</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="0" t="n">
         <v>46.749903939956</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="0" t="n">
         <v>46.749903939956</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="0" t="n">
         <f aca="false">AVERAGE(K3:K4)</f>
         <v>11.7044824180498</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="0" t="n">
+        <f aca="false">28.95-K4</f>
+        <v>-17.799903939956</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M4)</f>
+        <v>17.2455175819503</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <f aca="false">AVERAGE(M3:M4)</f>
+      <c r="P4" s="0" t="n">
+        <f aca="false">AVERAGE(O3:O4)</f>
         <v>80</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="Q4" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="R4" s="0" t="n">
+        <f aca="false">AVERAGE(Q3:Q4)</f>
+        <v>43.3333333333334</v>
+      </c>
+      <c r="S4" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q4" s="5" t="n">
-        <f aca="false">AVERAGE(P3:P4)</f>
+      <c r="T4" s="0" t="n">
+        <f aca="false">AVERAGE(S3:S4)</f>
         <v>62.5</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="U4" s="0" t="n">
+        <f aca="false">(O4*Q4)/10000</f>
+        <v>0.7</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">(P4*R4)/10000</f>
+        <v>0.346666666666667</v>
+      </c>
+      <c r="X4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="Y4" s="6" t="n">
         <f aca="false">AVERAGE(C46,C52,C60,C68,C76)</f>
         <v>5</v>
       </c>
-      <c r="U4" s="0" t="n">
-        <f aca="false">AVERAGE(D46,D52,D60,D68,D76)</f>
+      <c r="Z4" s="6" t="n">
+        <v>3.53553390593274</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <f aca="false">AVERAGE(Y3:Y4)</f>
         <v>7.4</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="AB4" s="6" t="n">
+        <f aca="false">STDEV(D46,D52,D60,D68,D76)</f>
+        <v>3.4532593299664</v>
+      </c>
+      <c r="AC4" s="0" t="n">
         <f aca="false">AVERAGE(E46,E52,E60,E68,E76)</f>
         <v>88</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="AD4" s="6" t="n">
         <f aca="false">AVERAGE(F46,F52,F60,F68,F76)</f>
         <v>83</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="AE4" s="6" t="n">
+        <f aca="false">STDEV(F46,F52,F60,F68,F76)</f>
+        <v>17.1755640373177</v>
+      </c>
+      <c r="AF4" s="0" t="n">
         <f aca="false">AVERAGE(G46,G52,G60,G68,G76)</f>
         <v>57.1111111111111</v>
       </c>
-      <c r="Y4" s="0" t="n">
-        <f aca="false">AVERAGE(H46,H52,H60,H68,H76)</f>
+      <c r="AG4" s="6" t="n">
+        <f aca="false">AVERAGE(AF3:AF4)</f>
+        <v>49.9722222222222</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <f aca="false">STDEV(H46,H52,H60,H68,H76)</f>
+        <v>8.9042835440084</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <f aca="false">AVERAGE(I46,I52,I60,I68,I76)</f>
         <v>84.1666666666667</v>
       </c>
-      <c r="Z4" s="0" t="n">
-        <f aca="false">AVERAGE(I46,I52,I60,I68,I76)</f>
+      <c r="AJ4" s="6" t="n">
+        <f aca="false">AVERAGE(AI3:AI4)</f>
         <v>73.0833333333333</v>
       </c>
-      <c r="AA4" s="0" t="n">
-        <f aca="false">AVERAGE(J46,J52,J60,J68,J76)</f>
+      <c r="AK4" s="6" t="n">
+        <f aca="false">STDEV(J46,J52,J60,J68,J76)</f>
+        <v>21.1057193407116</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <f aca="false">AVERAGE(K46,K52,K60,K68,K76)</f>
         <v>153.5668013028</v>
       </c>
-      <c r="AB4" s="0" t="n">
-        <f aca="false">AVERAGE(K46,K52,K60,K68,K76)</f>
+      <c r="AM4" s="0" t="n">
+        <f aca="false">STDEV(K46,K52,K60,K68,K76)</f>
+        <v>56.4065255203903</v>
+      </c>
+      <c r="AN4" s="6" t="n">
+        <f aca="false">AVERAGE(AL3:AL4)</f>
         <v>179.5274844034</v>
       </c>
-      <c r="AC4" s="0" t="n">
-        <f aca="false">AVERAGE(L46,L52,L60,L68,L76)</f>
+      <c r="AO4" s="6" t="n">
+        <f aca="false">STDEV(L46,L52,L60,L68,L76)</f>
+        <v>30.7084638552523</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <f aca="false">AVERAGE(M46,M52,M60,M68,M76)</f>
         <v>20.1166163448296</v>
       </c>
-      <c r="AD4" s="0" t="n">
-        <f aca="false">AVERAGE(M46,M52,M60,M68,M76)</f>
+      <c r="AQ4" s="6" t="n">
+        <f aca="false">AVERAGE(AP3:AP4)</f>
         <v>11.075015257853</v>
+      </c>
+      <c r="AR4" s="6" t="n">
+        <f aca="false">STDEV(N46,N52,N60,N68,N76)</f>
+        <v>20.4474831756227</v>
+      </c>
+      <c r="AS4" s="0" t="n">
+        <f aca="false">AVERAGE(O46,O52,O60,O68,O76)</f>
+        <v>8.83338365517036</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <f aca="false">STDEV(O46,O52,O60,O68,O76)</f>
+        <v>26.255211315464</v>
+      </c>
+      <c r="AU4" s="6" t="n">
+        <v>17.874984742147</v>
+      </c>
+      <c r="AV4" s="6" t="n">
+        <f aca="false">STDEV(P46,P52,P60,P68,P76)</f>
+        <v>20.4474831756227</v>
+      </c>
+      <c r="AW4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AX4" s="6" t="n">
+        <f aca="false">AVERAGE(R46,R52,R60,R68,R76)</f>
+        <v>0.40775</v>
+      </c>
+      <c r="AY4" s="6" t="n">
+        <f aca="false">AVERAGE(AW3:AW4)</f>
+        <v>0.42</v>
+      </c>
+      <c r="AZ4" s="6" t="n">
+        <f aca="false">STDEV(Q46,Q52,Q60,Q68,Q76)</f>
+        <v>0.14142135623731</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <f aca="false">AVERAGE(D3:D5)</f>
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>138.509891616</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="0" t="n">
         <v>138.509891616</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="0" t="n">
         <f aca="false">AVERAGE(H3:H5)</f>
         <v>153.703790913667</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="0" t="n">
         <v>46.7466739418908</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="0" t="n">
         <v>46.7466739418908</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="0" t="n">
         <f aca="false">AVERAGE(K3:K5)</f>
         <v>23.3852129259968</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="0" t="n">
+        <f aca="false">28.95-K5</f>
+        <v>-17.7966739418908</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M5)</f>
+        <v>5.56478707400323</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N5" s="5" t="n">
-        <f aca="false">AVERAGE(M3:M5)</f>
+      <c r="P5" s="0" t="n">
+        <f aca="false">AVERAGE(O3:O5)</f>
         <v>86.6666666666667</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="Q5" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="R5" s="0" t="n">
+        <f aca="false">AVERAGE(Q3:Q5)</f>
+        <v>52.2222222222222</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <f aca="false">AVERAGE(P3:P5)</f>
+      <c r="T5" s="0" t="n">
+        <f aca="false">AVERAGE(S3:S5)</f>
         <v>75</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="U5" s="0" t="n">
+        <f aca="false">(O5*Q5)/10000</f>
+        <v>0.7</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">(P5*R5)/10000</f>
+        <v>0.452592592592593</v>
+      </c>
+      <c r="X5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="Y5" s="6" t="n">
         <f aca="false">AVERAGE(C47,C53,C61,C69,C77)</f>
         <v>5</v>
       </c>
-      <c r="U5" s="0" t="n">
-        <f aca="false">AVERAGE(D47,D53,D61,D69,D77)</f>
-        <v>6.6</v>
-      </c>
-      <c r="V5" s="0" t="n">
+      <c r="Z5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <f aca="false">AVERAGE(Y4:Y5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB5" s="6" t="n">
+        <f aca="false">STDEV(D47,D53,D61,D69,D77)</f>
+        <v>2.2286019533929</v>
+      </c>
+      <c r="AC5" s="0" t="n">
         <f aca="false">AVERAGE(E47,E53,E61,E69,E77)</f>
         <v>86</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="AD5" s="6" t="n">
         <f aca="false">AVERAGE(F47,F53,F61,F69,F77)</f>
         <v>84</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="AE5" s="6" t="n">
+        <f aca="false">STDEV(F47,F53,F61,F69,F77)</f>
+        <v>14.4144988736264</v>
+      </c>
+      <c r="AF5" s="0" t="n">
         <f aca="false">AVERAGE(G47,G53,G61,G69,G77)</f>
         <v>65.2698412698413</v>
       </c>
-      <c r="Y5" s="0" t="n">
-        <f aca="false">AVERAGE(H47,H53,H61,H69,H77)</f>
+      <c r="AG5" s="6" t="n">
+        <f aca="false">AVERAGE(AF4:AF5)</f>
+        <v>61.1904761904762</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <f aca="false">STDEV(H47,H53,H61,H69,H77)</f>
+        <v>8.78689078249359</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <f aca="false">AVERAGE(I47,I53,I61,I69,I77)</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="Z5" s="0" t="n">
-        <f aca="false">AVERAGE(I47,I53,I61,I69,I77)</f>
-        <v>76.5</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <f aca="false">AVERAGE(J47,J53,J61,J69,J77)</f>
+      <c r="AJ5" s="6" t="n">
+        <f aca="false">AVERAGE(AI4:AI5)</f>
+        <v>83.75</v>
+      </c>
+      <c r="AK5" s="6" t="n">
+        <f aca="false">STDEV(J47,J53,J61,J69,J77)</f>
+        <v>17.1139066980376</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <f aca="false">AVERAGE(K47,K53,K61,K69,K77)</f>
         <v>152.8489425814</v>
       </c>
-      <c r="AB5" s="0" t="n">
-        <f aca="false">AVERAGE(K47,K53,K61,K69,K77)</f>
-        <v>170.6346371294</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <f aca="false">AVERAGE(L47,L53,L61,L69,L77)</f>
+      <c r="AM5" s="0" t="n">
+        <f aca="false">STDEV(K47,K53,K61,K69,K77)</f>
+        <v>26.3676398198484</v>
+      </c>
+      <c r="AN5" s="6" t="n">
+        <f aca="false">AVERAGE(AL4:AL5)</f>
+        <v>153.2078719421</v>
+      </c>
+      <c r="AO5" s="6" t="n">
+        <f aca="false">STDEV(L47,L53,L61,L69,L77)</f>
+        <v>24.7080900505985</v>
+      </c>
+      <c r="AP5" s="0" t="n">
+        <f aca="false">AVERAGE(M47,M53,M61,M69,M77)</f>
         <v>20.0228898974695</v>
       </c>
-      <c r="AD5" s="0" t="n">
-        <f aca="false">AVERAGE(M47,M53,M61,M69,M77)</f>
-        <v>14.0576401377252</v>
+      <c r="AQ5" s="6" t="n">
+        <f aca="false">AVERAGE(AP4:AP5)</f>
+        <v>20.0697531211496</v>
+      </c>
+      <c r="AR5" s="6" t="n">
+        <f aca="false">STDEV(N47,N53,N61,N69,N77)</f>
+        <v>16.2908788174744</v>
+      </c>
+      <c r="AS5" s="0" t="n">
+        <f aca="false">AVERAGE(O47,O53,O61,O69,O77)</f>
+        <v>8.92711010253045</v>
+      </c>
+      <c r="AT5" s="0" t="n">
+        <f aca="false">STDEV(O47,O53,O61,O69,O77)</f>
+        <v>17.9499292087631</v>
+      </c>
+      <c r="AU5" s="6" t="n">
+        <v>8.88024687885041</v>
+      </c>
+      <c r="AV5" s="6" t="n">
+        <f aca="false">STDEV(P47,P53,P61,P69,P77)</f>
+        <v>16.2908788174744</v>
+      </c>
+      <c r="AW5" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AX5" s="6" t="n">
+        <f aca="false">AVERAGE(R47,R53,R61,R69,R77)</f>
+        <v>0.457545855379189</v>
+      </c>
+      <c r="AY5" s="6" t="n">
+        <f aca="false">AVERAGE(AW4:AW5)</f>
+        <v>0.53</v>
+      </c>
+      <c r="AZ5" s="6" t="n">
+        <f aca="false">STDEV(Q47,Q53,Q61,Q69,Q77)</f>
+        <v>0.134164078649988</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="0" t="n">
         <f aca="false">AVERAGE(D3:D6)</f>
         <v>5.5</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="0" t="n">
         <v>117.285004864</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="0" t="n">
         <v>117.285004864</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="0" t="n">
         <f aca="false">AVERAGE(H3:H6)</f>
         <v>144.59909440125</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="0" t="n">
         <v>23.2010008593627</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="0" t="n">
         <v>23.2010008593627</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="0" t="n">
         <f aca="false">AVERAGE(K3:K6)</f>
-        <v>23.3391599093383</v>
-      </c>
-      <c r="M6" s="5" t="n">
+        <v>23.3391599093382</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">28.95-K6</f>
+        <v>5.7489991406373</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M6)</f>
+        <v>5.61084009066175</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N6" s="5" t="n">
-        <f aca="false">AVERAGE(M3:M6)</f>
+      <c r="P6" s="0" t="n">
+        <f aca="false">AVERAGE(O3:O6)</f>
         <v>87.5</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="Q6" s="0" t="n">
         <v>55.5555555555556</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="R6" s="0" t="n">
+        <f aca="false">AVERAGE(Q3:Q6)</f>
+        <v>53.0555555555556</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>83.3333333333333</v>
       </c>
-      <c r="Q6" s="5" t="n">
-        <f aca="false">AVERAGE(P3:P6)</f>
+      <c r="T6" s="0" t="n">
+        <f aca="false">AVERAGE(S3:S6)</f>
         <v>77.0833333333333</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="U6" s="0" t="n">
+        <f aca="false">(O6*Q6)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">(P6*R6)/10000</f>
+        <v>0.464236111111112</v>
+      </c>
+      <c r="X6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="Y6" s="6" t="n">
         <f aca="false">AVERAGE(C48,C54,C62,C70,C78)</f>
         <v>4.6</v>
       </c>
-      <c r="U6" s="0" t="n">
-        <f aca="false">AVERAGE(D48,D54,D62,D70,D78)</f>
-        <v>6.1</v>
-      </c>
-      <c r="V6" s="0" t="n">
+      <c r="Z6" s="6" t="n">
+        <v>2.30217288664427</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <f aca="false">AVERAGE(Y5:Y6)</f>
+        <v>4.8</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <f aca="false">STDEV(D48,D54,D62,D70,D78)</f>
+        <v>1.55724115023974</v>
+      </c>
+      <c r="AC6" s="0" t="n">
         <f aca="false">AVERAGE(E48,E54,E62,E70,E78)</f>
         <v>88</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="AD6" s="6" t="n">
         <f aca="false">AVERAGE(F48,F54,F62,F70,F78)</f>
         <v>85</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="AE6" s="6" t="n">
+        <f aca="false">STDEV(F48,F54,F62,F70,F78)</f>
+        <v>13.9194109070751</v>
+      </c>
+      <c r="AF6" s="0" t="n">
         <f aca="false">AVERAGE(G48,G54,G62,G70,G78)</f>
         <v>53.6825396825397</v>
       </c>
-      <c r="Y6" s="0" t="n">
-        <f aca="false">AVERAGE(H48,H54,H62,H70,H78)</f>
+      <c r="AG6" s="6" t="n">
+        <f aca="false">AVERAGE(AF5:AF6)</f>
+        <v>59.4761904761905</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <f aca="false">STDEV(H48,H54,H62,H70,H78)</f>
+        <v>6.06434220490408</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <f aca="false">AVERAGE(I48,I54,I62,I70,I78)</f>
         <v>80</v>
       </c>
-      <c r="Z6" s="0" t="n">
-        <f aca="false">AVERAGE(I48,I54,I62,I70,I78)</f>
-        <v>77.375</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <f aca="false">AVERAGE(J48,J54,J62,J70,J78)</f>
+      <c r="AJ6" s="6" t="n">
+        <f aca="false">AVERAGE(AI5:AI6)</f>
+        <v>81.6666666666667</v>
+      </c>
+      <c r="AK6" s="6" t="n">
+        <f aca="false">STDEV(J48,J54,J62,J70,J78)</f>
+        <v>17.9937778597677</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <f aca="false">AVERAGE(K48,K54,K62,K70,K78)</f>
         <v>136.0321701478</v>
       </c>
-      <c r="AB6" s="0" t="n">
-        <f aca="false">AVERAGE(K48,K54,K62,K70,K78)</f>
-        <v>161.984020384</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <f aca="false">AVERAGE(L48,L54,L62,L70,L78)</f>
+      <c r="AM6" s="0" t="n">
+        <f aca="false">STDEV(K48,K54,K62,K70,K78)</f>
+        <v>14.106118022775</v>
+      </c>
+      <c r="AN6" s="6" t="n">
+        <f aca="false">AVERAGE(AL5:AL6)</f>
+        <v>144.4405563646</v>
+      </c>
+      <c r="AO6" s="6" t="n">
+        <f aca="false">STDEV(L48,L54,L62,L70,L78)</f>
+        <v>18.1096360238053</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <f aca="false">AVERAGE(M48,M54,M62,M70,M78)</f>
         <v>22.6291059923222</v>
       </c>
-      <c r="AD6" s="0" t="n">
-        <f aca="false">AVERAGE(M48,M54,M62,M70,M78)</f>
-        <v>16.2005066013744</v>
+      <c r="AQ6" s="6" t="n">
+        <f aca="false">AVERAGE(AP5:AP6)</f>
+        <v>21.3259979448959</v>
+      </c>
+      <c r="AR6" s="6" t="n">
+        <f aca="false">STDEV(N48,N54,N62,N70,N78)</f>
+        <v>13.807124743738</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <f aca="false">AVERAGE(O48,O54,O62,O70,O78)</f>
+        <v>6.32089400767784</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <f aca="false">STDEV(O48,O54,O62,O70,O78)</f>
+        <v>7.09370780433802</v>
+      </c>
+      <c r="AU6" s="6" t="n">
+        <v>7.62400205510415</v>
+      </c>
+      <c r="AV6" s="6" t="n">
+        <f aca="false">STDEV(P48,P54,P62,P70,P78)</f>
+        <v>13.807124743738</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AX6" s="6" t="n">
+        <f aca="false">AVERAGE(R48,R54,R62,R70,R78)</f>
+        <v>0.463698908730159</v>
+      </c>
+      <c r="AY6" s="6" t="n">
+        <f aca="false">AVERAGE(AW5:AW6)</f>
+        <v>0.52</v>
+      </c>
+      <c r="AZ6" s="6" t="n">
+        <f aca="false">STDEV(Q48,Q54,Q62,Q70,Q78)</f>
+        <v>0.130384048104053</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <f aca="false">AVERAGE(D3:D7)</f>
         <v>4.4</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>121.322895635</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="0" t="n">
         <v>121.322895635</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="0" t="n">
         <f aca="false">AVERAGE(H3:H7)</f>
         <v>139.943854648</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="0" t="n">
         <v>39.0524845018946</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="0" t="n">
         <v>39.0524845018946</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="0" t="n">
         <f aca="false">AVERAGE(K3:K7)</f>
         <v>26.4818248278495</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="0" t="n">
+        <f aca="false">28.95-K7</f>
+        <v>-10.1024845018946</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M7)</f>
+        <v>2.46817517215048</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N7" s="5" t="n">
-        <f aca="false">AVERAGE(M3:M7)</f>
+      <c r="P7" s="0" t="n">
+        <f aca="false">AVERAGE(O3:O7)</f>
         <v>88</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="Q7" s="0" t="n">
         <v>88.8888888888889</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="R7" s="0" t="n">
+        <f aca="false">AVERAGE(Q3:Q7)</f>
+        <v>60.2222222222222</v>
+      </c>
+      <c r="S7" s="0" t="n">
         <v>88.8888888888889</v>
       </c>
-      <c r="Q7" s="5" t="n">
-        <f aca="false">AVERAGE(P3:P7)</f>
-        <v>79.4444444444445</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="T7" s="0" t="n">
+        <f aca="false">AVERAGE(S3:S7)</f>
+        <v>79.4444444444444</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">(O7*Q7)/10000</f>
+        <v>0.8</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">(P7*R7)/10000</f>
+        <v>0.529955555555555</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="6" t="n">
         <f aca="false">AVERAGE(C49,C55,C63,C71,C79)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="0" t="n">
-        <f aca="false">AVERAGE(D49,D55,D63,D71,D79)</f>
-        <v>5.48</v>
-      </c>
-      <c r="V7" s="0" t="n">
+      <c r="Z7" s="6" t="n">
+        <v>2.73861278752583</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <f aca="false">AVERAGE(Y6:Y7)</f>
+        <v>3.8</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <f aca="false">STDEV(D49,D55,D63,D71,D79)</f>
+        <v>1.20498962651137</v>
+      </c>
+      <c r="AC7" s="0" t="n">
         <f aca="false">AVERAGE(E49,E55,E63,E71,E79)</f>
         <v>82</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="AD7" s="6" t="n">
         <f aca="false">AVERAGE(F49,F55,F63,F71,F79)</f>
         <v>84.4</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="AE7" s="6" t="n">
+        <f aca="false">STDEV(F49,F55,F63,F71,F79)</f>
+        <v>10.807404868885</v>
+      </c>
+      <c r="AF7" s="0" t="n">
         <f aca="false">AVERAGE(G49,G55,G63,G71,G79)</f>
         <v>57.8412698412698</v>
       </c>
-      <c r="Y7" s="0" t="n">
-        <f aca="false">AVERAGE(H49,H55,H63,H71,H79)</f>
+      <c r="AG7" s="6" t="n">
+        <f aca="false">AVERAGE(AF6:AF7)</f>
+        <v>55.7619047619048</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <f aca="false">STDEV(H49,H55,H63,H71,H79)</f>
+        <v>5.05010296276149</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <f aca="false">AVERAGE(I49,I55,I63,I71,I79)</f>
         <v>73.6111111111111</v>
       </c>
-      <c r="Z7" s="0" t="n">
-        <f aca="false">AVERAGE(I49,I55,I63,I71,I79)</f>
-        <v>76.6222222222222</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <f aca="false">AVERAGE(J49,J55,J63,J71,J79)</f>
+      <c r="AJ7" s="6" t="n">
+        <f aca="false">AVERAGE(AI6:AI7)</f>
+        <v>76.8055555555556</v>
+      </c>
+      <c r="AK7" s="6" t="n">
+        <f aca="false">STDEV(J49,J55,J63,J71,J79)</f>
+        <v>13.4090097773802</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <f aca="false">AVERAGE(K49,K55,K63,K71,K79)</f>
         <v>142.5960744278</v>
       </c>
-      <c r="AB7" s="0" t="n">
-        <f aca="false">AVERAGE(K49,K55,K63,K71,K79)</f>
-        <v>158.10643119276</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <f aca="false">AVERAGE(L49,L55,L63,L71,L79)</f>
+      <c r="AM7" s="0" t="n">
+        <f aca="false">STDEV(K49,K55,K63,K71,K79)</f>
+        <v>41.3499977236867</v>
+      </c>
+      <c r="AN7" s="6" t="n">
+        <f aca="false">AVERAGE(AL6:AL7)</f>
+        <v>139.3141222878</v>
+      </c>
+      <c r="AO7" s="6" t="n">
+        <f aca="false">STDEV(L49,L55,L63,L71,L79)</f>
+        <v>18.0971750287776</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <f aca="false">AVERAGE(M49,M55,M63,M71,M79)</f>
         <v>20.7494626698756</v>
       </c>
-      <c r="AD7" s="0" t="n">
-        <f aca="false">AVERAGE(M49,M55,M63,M71,M79)</f>
-        <v>17.1102978150747</v>
+      <c r="AQ7" s="6" t="n">
+        <f aca="false">AVERAGE(AP6:AP7)</f>
+        <v>21.6892843310989</v>
+      </c>
+      <c r="AR7" s="6" t="n">
+        <f aca="false">STDEV(N49,N55,N63,N71,N79)</f>
+        <v>10.8570485518008</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <f aca="false">AVERAGE(O49,O55,O63,O71,O79)</f>
+        <v>8.20053733012439</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <f aca="false">STDEV(O49,O55,O63,O71,O79)</f>
+        <v>21.4922954708654</v>
+      </c>
+      <c r="AU7" s="6" t="n">
+        <v>7.26071566890112</v>
+      </c>
+      <c r="AV7" s="6" t="n">
+        <f aca="false">STDEV(P49,P55,P63,P71,P79)</f>
+        <v>10.8570485518008</v>
+      </c>
+      <c r="AW7" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AX7" s="6" t="n">
+        <f aca="false">AVERAGE(R49,R55,R63,R71,R79)</f>
+        <v>0.46471746031746</v>
+      </c>
+      <c r="AY7" s="6" t="n">
+        <f aca="false">AVERAGE(AW6:AW7)</f>
+        <v>0.48</v>
+      </c>
+      <c r="AZ7" s="6" t="n">
+        <f aca="false">STDEV(Q49,Q55,Q63,Q71,Q79)</f>
+        <v>0.216794833886788</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">AVERAGE(D3:D8)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>92.143468157</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="0" t="n">
         <v>92.143468157</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="0" t="n">
         <f aca="false">AVERAGE(H3:H8)</f>
         <v>131.977123566167</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="0" t="n">
         <v>50.5639164155635</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="0" t="n">
         <v>50.5639164155635</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="0" t="n">
         <f aca="false">AVERAGE(K3:K8)</f>
         <v>30.4955067591352</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="0" t="n">
+        <f aca="false">28.95-K8</f>
+        <v>-21.6139164155635</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M8)</f>
+        <v>-1.54550675913518</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <f aca="false">AVERAGE(M3:M8)</f>
+      <c r="P8" s="0" t="n">
+        <f aca="false">AVERAGE(O3:O8)</f>
         <v>90</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="Q8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="R8" s="0" t="n">
+        <f aca="false">AVERAGE(Q3:Q8)</f>
+        <v>66.8518518518519</v>
+      </c>
+      <c r="S8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q8" s="5" t="n">
-        <f aca="false">AVERAGE(P3:P8)</f>
+      <c r="T8" s="0" t="n">
+        <f aca="false">AVERAGE(S3:S8)</f>
         <v>82.8703703703704</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="U8" s="0" t="n">
+        <f aca="false">(O8*Q8)/10000</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">(P8*R8)/10000</f>
+        <v>0.601666666666667</v>
+      </c>
+      <c r="X8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="Y8" s="6" t="n">
         <f aca="false">AVERAGE(C50,C56,C64,C72,C80)</f>
         <v>3.8</v>
       </c>
-      <c r="U8" s="0" t="n">
-        <f aca="false">AVERAGE(D50,D56,D64,D72,D80)</f>
-        <v>5.2</v>
-      </c>
-      <c r="V8" s="0" t="n">
+      <c r="Z8" s="6" t="n">
+        <v>6.30079360080935</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <f aca="false">AVERAGE(Y7:Y8)</f>
+        <v>3.4</v>
+      </c>
+      <c r="AB8" s="6" t="n">
+        <f aca="false">STDEV(D50,D56,D64,D72,D80)</f>
+        <v>1.88340707820222</v>
+      </c>
+      <c r="AC8" s="0" t="n">
         <f aca="false">AVERAGE(E50,E56,E64,E72,E80)</f>
         <v>94</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="AD8" s="6" t="n">
         <f aca="false">AVERAGE(F50,F56,F64,F72,F80)</f>
         <v>86</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="AE8" s="6" t="n">
+        <f aca="false">STDEV(F50,F56,F64,F72,F80)</f>
+        <v>9.24962461700774</v>
+      </c>
+      <c r="AF8" s="0" t="n">
         <f aca="false">AVERAGE(G50,G56,G64,G72,G80)</f>
         <v>73.8333333333333</v>
       </c>
-      <c r="Y8" s="0" t="n">
-        <f aca="false">AVERAGE(H50,H56,H64,H72,H80)</f>
+      <c r="AG8" s="6" t="n">
+        <f aca="false">AVERAGE(AF7:AF8)</f>
+        <v>65.8373015873016</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <f aca="false">STDEV(H50,H56,H64,H72,H80)</f>
+        <v>5.91459493985338</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <f aca="false">AVERAGE(I50,I56,I64,I72,I80)</f>
         <v>91.4285714285714</v>
       </c>
-      <c r="Z8" s="0" t="n">
-        <f aca="false">AVERAGE(I50,I56,I64,I72,I80)</f>
-        <v>79.0899470899471</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <f aca="false">AVERAGE(J50,J56,J64,J72,J80)</f>
+      <c r="AJ8" s="6" t="n">
+        <f aca="false">AVERAGE(AI7:AI8)</f>
+        <v>82.5198412698413</v>
+      </c>
+      <c r="AK8" s="6" t="n">
+        <f aca="false">STDEV(J50,J56,J64,J72,J80)</f>
+        <v>11.5211664889834</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <f aca="false">AVERAGE(K50,K56,K64,K72,K80)</f>
         <v>115.9306283374</v>
       </c>
-      <c r="AB8" s="0" t="n">
-        <f aca="false">AVERAGE(K50,K56,K64,K72,K80)</f>
-        <v>151.077130716867</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <f aca="false">AVERAGE(L50,L56,L64,L72,L80)</f>
+      <c r="AM8" s="0" t="n">
+        <f aca="false">STDEV(K50,K56,K64,K72,K80)</f>
+        <v>19.5768806169842</v>
+      </c>
+      <c r="AN8" s="6" t="n">
+        <f aca="false">AVERAGE(AL7:AL8)</f>
+        <v>129.2633513826</v>
+      </c>
+      <c r="AO8" s="6" t="n">
+        <f aca="false">STDEV(L50,L56,L64,L72,L80)</f>
+        <v>17.3387790197755</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <f aca="false">AVERAGE(M50,M56,M64,M72,M80)</f>
         <v>32.693993940677</v>
       </c>
-      <c r="AD8" s="0" t="n">
-        <f aca="false">AVERAGE(M50,M56,M64,M72,M80)</f>
-        <v>19.7075805026751</v>
+      <c r="AQ8" s="6" t="n">
+        <f aca="false">AVERAGE(AP7:AP8)</f>
+        <v>26.7217283052763</v>
+      </c>
+      <c r="AR8" s="6" t="n">
+        <f aca="false">STDEV(N50,N56,N64,N72,N80)</f>
+        <v>10.1957671051968</v>
+      </c>
+      <c r="AS8" s="0" t="n">
+        <f aca="false">AVERAGE(O50,O56,O64,O72,O80)</f>
+        <v>-3.74399394067703</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <f aca="false">STDEV(O50,O56,O64,O72,O80)</f>
+        <v>22.3835555130815</v>
+      </c>
+      <c r="AU8" s="6" t="n">
+        <v>2.22827169472368</v>
+      </c>
+      <c r="AV8" s="6" t="n">
+        <f aca="false">STDEV(P50,P56,P64,P72,P80)</f>
+        <v>10.1957671051968</v>
+      </c>
+      <c r="AW8" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AX8" s="6" t="n">
+        <f aca="false">AVERAGE(R50,R56,R64,R72,R80)</f>
+        <v>0.501407407407408</v>
+      </c>
+      <c r="AY8" s="6" t="n">
+        <f aca="false">AVERAGE(AW7:AW8)</f>
+        <v>0.59</v>
+      </c>
+      <c r="AZ8" s="6" t="n">
+        <f aca="false">STDEV(Q50,Q56,Q64,Q72,Q80)</f>
+        <v>0.187082869338697</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="0" t="n">
         <f aca="false">AVERAGE(D9:D9)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="0" t="n">
         <v>214.56833301</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="0" t="n">
         <v>214.56833301</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="0" t="n">
         <f aca="false">AVERAGE(H9:H9)</f>
         <v>214.56833301</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="0" t="n">
         <v>23.2884711495322</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="0" t="n">
         <v>23.2884711495322</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="0" t="n">
         <f aca="false">AVERAGE(K9:K9)</f>
         <v>23.2884711495322</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="0" t="n">
+        <f aca="false">28.95-K9</f>
+        <v>5.6615288504678</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M9)</f>
+        <v>5.6615288504678</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N9" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M9)</f>
+      <c r="P9" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O9)</f>
         <v>90</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="Q9" s="0" t="n">
         <v>33.3333333333333</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="R9" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q9)</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="Q9" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P9)</f>
+      <c r="T9" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S9)</f>
         <v>75</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="U9" s="0" t="n">
+        <f aca="false">(O9*Q9)/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">(P9*R9)/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="X9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="Y9" s="6" t="n">
         <f aca="false">AVERAGE(C57,C65,C73,C81)</f>
         <v>3.25</v>
       </c>
-      <c r="U9" s="0" t="n">
-        <f aca="false">AVERAGE(D57,D65,D73,D81)</f>
-        <v>5.25</v>
-      </c>
-      <c r="V9" s="0" t="n">
+      <c r="Z9" s="6" t="n">
+        <v>3.5939764421413</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <f aca="false">AVERAGE(Y8:Y9)</f>
+        <v>3.525</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <f aca="false">STDEV(D57,D65,D73,D81)</f>
+        <v>2.06155281280883</v>
+      </c>
+      <c r="AC9" s="0" t="n">
         <f aca="false">AVERAGE(E57,E65,E73,E81)</f>
         <v>90</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="AD9" s="6" t="n">
         <f aca="false">AVERAGE(F57,F65,F73,F81)</f>
         <v>85.7142857142857</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="AE9" s="6" t="n">
+        <f aca="false">STDEV(F57,F65,F73,F81)</f>
+        <v>9.6890428330361</v>
+      </c>
+      <c r="AF9" s="0" t="n">
         <f aca="false">AVERAGE(G57,G65,G73,G81)</f>
         <v>80.2083333333333</v>
       </c>
-      <c r="Y9" s="0" t="n">
-        <f aca="false">AVERAGE(H57,H65,H73,H81)</f>
+      <c r="AG9" s="6" t="n">
+        <f aca="false">AVERAGE(AF8:AF9)</f>
+        <v>77.0208333333333</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <f aca="false">STDEV(H57,H65,H73,H81)</f>
+        <v>1.49729546267774</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <f aca="false">AVERAGE(I57,I65,I73,I81)</f>
         <v>87.3015873015873</v>
       </c>
-      <c r="Z9" s="0" t="n">
-        <f aca="false">AVERAGE(I57,I65,I73,I81)</f>
-        <v>79.452947845805</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <f aca="false">AVERAGE(J57,J65,J73,J81)</f>
+      <c r="AJ9" s="6" t="n">
+        <f aca="false">AVERAGE(AI8:AI9)</f>
+        <v>89.3650793650794</v>
+      </c>
+      <c r="AK9" s="6" t="n">
+        <f aca="false">STDEV(J57,J65,J73,J81)</f>
+        <v>12.2181394343615</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <f aca="false">AVERAGE(K57,K65,K73,K81)</f>
         <v>102.95105239975</v>
       </c>
-      <c r="AB9" s="0" t="n">
-        <f aca="false">AVERAGE(K57,K65,K73,K81)</f>
-        <v>148.294835346714</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <f aca="false">AVERAGE(L57,L65,L73,L81)</f>
+      <c r="AM9" s="0" t="n">
+        <f aca="false">STDEV(K57,K65,K73,K81)</f>
+        <v>8.71838811886307</v>
+      </c>
+      <c r="AN9" s="6" t="n">
+        <f aca="false">AVERAGE(AL8:AL9)</f>
+        <v>109.440840368575</v>
+      </c>
+      <c r="AO9" s="6" t="n">
+        <f aca="false">STDEV(L57,L65,L73,L81)</f>
+        <v>13.3058135333904</v>
+      </c>
+      <c r="AP9" s="0" t="n">
+        <f aca="false">AVERAGE(M57,M65,M73,M81)</f>
         <v>30.8575069875805</v>
       </c>
-      <c r="AD9" s="0" t="n">
-        <f aca="false">AVERAGE(M57,M65,M73,M81)</f>
-        <v>18.9887286598487</v>
+      <c r="AQ9" s="6" t="n">
+        <f aca="false">AVERAGE(AP8:AP9)</f>
+        <v>31.7757504641288</v>
+      </c>
+      <c r="AR9" s="6" t="n">
+        <f aca="false">STDEV(N57,N65,N73,N81)</f>
+        <v>9.40264558917482</v>
+      </c>
+      <c r="AS9" s="0" t="n">
+        <f aca="false">AVERAGE(O57,O65,O73,O81)</f>
+        <v>-1.90750698758053</v>
+      </c>
+      <c r="AT9" s="0" t="n">
+        <f aca="false">STDEV(O57,O65,O73,O81)</f>
+        <v>14.6085917485</v>
+      </c>
+      <c r="AU9" s="6" t="n">
+        <v>-2.82575046412878</v>
+      </c>
+      <c r="AV9" s="6" t="n">
+        <f aca="false">STDEV(P57,P65,P73,P81)</f>
+        <v>9.40264558917482</v>
+      </c>
+      <c r="AW9" s="0" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AX9" s="6" t="n">
+        <f aca="false">AVERAGE(R57,R65,R73,R81)</f>
+        <v>0.511085195983155</v>
+      </c>
+      <c r="AY9" s="6" t="n">
+        <f aca="false">AVERAGE(AW8:AW9)</f>
+        <v>0.7125</v>
+      </c>
+      <c r="AZ9" s="6" t="n">
+        <f aca="false">STDEV(Q57,Q65,Q73,Q81)</f>
+        <v>0.189296944860009</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="0" t="n">
         <f aca="false">AVERAGE(D9:D10)</f>
         <v>3.5</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="0" t="n">
         <v>134.187291614</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="0" t="n">
         <v>134.187291614</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="0" t="n">
         <f aca="false">AVERAGE(H9:H10)</f>
         <v>174.377812312</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="0" t="n">
         <v>23.8243151575326</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="0" t="n">
         <v>23.8243151575326</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="0" t="n">
         <f aca="false">AVERAGE(K9:K10)</f>
         <v>23.5563931535324</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="0" t="n">
+        <f aca="false">28.95-K10</f>
+        <v>5.1256848424674</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M10)</f>
+        <v>5.3936068464676</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N10" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M10)</f>
+      <c r="P10" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O10)</f>
         <v>90</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="Q10" s="0" t="n">
         <v>55.5555555555556</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="R10" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q10)</f>
+        <v>44.4444444444444</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>83.3333333333333</v>
       </c>
-      <c r="Q10" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P10)</f>
+      <c r="T10" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S10)</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="U10" s="0" t="n">
+        <f aca="false">(O10*Q10)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">(P10*R10)/10000</f>
+        <v>0.4</v>
+      </c>
+      <c r="X10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="Y10" s="6" t="n">
         <f aca="false">AVERAGE(C58,C66,C74,C82)</f>
         <v>1.75</v>
       </c>
-      <c r="U10" s="0" t="n">
-        <f aca="false">AVERAGE(D58,D66,D74,D82)</f>
-        <v>4.8125</v>
-      </c>
-      <c r="V10" s="0" t="n">
+      <c r="Z10" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <f aca="false">AVERAGE(Y9:Y10)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <f aca="false">STDEV(D58,D66,D74,D82)</f>
+        <v>1.80998388574779</v>
+      </c>
+      <c r="AC10" s="0" t="n">
         <f aca="false">AVERAGE(E58,E66,E74,E82)</f>
         <v>87.5</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="AD10" s="6" t="n">
         <f aca="false">AVERAGE(F58,F66,F74,F82)</f>
         <v>85.9375</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="AE10" s="6" t="n">
+        <f aca="false">STDEV(F58,F66,F74,F82)</f>
+        <v>8.50091906795965</v>
+      </c>
+      <c r="AF10" s="0" t="n">
         <f aca="false">AVERAGE(G58,G66,G74,G82)</f>
         <v>94.0972222222222</v>
       </c>
-      <c r="Y10" s="0" t="n">
-        <f aca="false">AVERAGE(H58,H66,H74,H82)</f>
+      <c r="AG10" s="6" t="n">
+        <f aca="false">AVERAGE(AF9:AF10)</f>
+        <v>87.1527777777778</v>
+      </c>
+      <c r="AH10" s="6" t="n">
+        <f aca="false">STDEV(H58,H66,H74,H82)</f>
+        <v>1.38311642931688</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <f aca="false">AVERAGE(I58,I66,I74,I82)</f>
         <v>86.6666666666667</v>
       </c>
-      <c r="Z10" s="0" t="n">
-        <f aca="false">AVERAGE(I58,I66,I74,I82)</f>
-        <v>80.3546626984127</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <f aca="false">AVERAGE(J58,J66,J74,J82)</f>
+      <c r="AJ10" s="6" t="n">
+        <f aca="false">AVERAGE(AI9:AI10)</f>
+        <v>86.984126984127</v>
+      </c>
+      <c r="AK10" s="6" t="n">
+        <f aca="false">STDEV(J58,J66,J74,J82)</f>
+        <v>10.6290444439985</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <f aca="false">AVERAGE(K58,K66,K74,K82)</f>
         <v>98.239789885</v>
       </c>
-      <c r="AB10" s="0" t="n">
-        <f aca="false">AVERAGE(K58,K66,K74,K82)</f>
-        <v>142.037954664</v>
-      </c>
-      <c r="AC10" s="0" t="n">
-        <f aca="false">AVERAGE(L58,L66,L74,L82)</f>
+      <c r="AM10" s="0" t="n">
+        <f aca="false">STDEV(K58,K66,K74,K82)</f>
+        <v>21.2672756043788</v>
+      </c>
+      <c r="AN10" s="6" t="n">
+        <f aca="false">AVERAGE(AL9:AL10)</f>
+        <v>100.595421142375</v>
+      </c>
+      <c r="AO10" s="6" t="n">
+        <f aca="false">STDEV(L58,L66,L74,L82)</f>
+        <v>13.196927066195</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <f aca="false">AVERAGE(M58,M66,M74,M82)</f>
         <v>33.5276795421469</v>
       </c>
-      <c r="AD10" s="0" t="n">
-        <f aca="false">AVERAGE(M58,M66,M74,M82)</f>
-        <v>20.8060975201359</v>
+      <c r="AQ10" s="6" t="n">
+        <f aca="false">AVERAGE(AP9:AP10)</f>
+        <v>32.1925932648637</v>
+      </c>
+      <c r="AR10" s="6" t="n">
+        <f aca="false">STDEV(N58,N66,N74,N82)</f>
+        <v>7.24133968151474</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <f aca="false">AVERAGE(O58,O66,O74,O82)</f>
+        <v>-4.5776795421469</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <f aca="false">STDEV(O58,O66,O74,O82)</f>
+        <v>10.2277620455974</v>
+      </c>
+      <c r="AU10" s="6" t="n">
+        <v>-3.24259326486371</v>
+      </c>
+      <c r="AV10" s="6" t="n">
+        <f aca="false">STDEV(P58,P66,P74,P82)</f>
+        <v>7.24133968151474</v>
+      </c>
+      <c r="AW10" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="AX10" s="6" t="n">
+        <f aca="false">AVERAGE(R58,R66,R74,R82)</f>
+        <v>0.549517609126984</v>
+      </c>
+      <c r="AY10" s="6" t="n">
+        <f aca="false">AVERAGE(AW9:AW10)</f>
+        <v>0.775</v>
+      </c>
+      <c r="AZ10" s="6" t="n">
+        <f aca="false">STDEV(Q58,Q66,Q74,Q82)</f>
+        <v>0.125830573921179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="0" t="n">
         <f aca="false">AVERAGE(D9:D11)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="0" t="n">
         <v>163.280004789</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="0" t="n">
         <v>163.280004789</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="0" t="n">
         <f aca="false">AVERAGE(H9:H11)</f>
         <v>170.678543137667</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="0" t="n">
         <v>29.8551972087784</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="0" t="n">
         <v>29.8551972087784</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="0" t="n">
         <f aca="false">AVERAGE(K9:K11)</f>
         <v>25.6559945052811</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="0" t="n">
+        <f aca="false">28.95-K11</f>
+        <v>-0.9051972087784</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M11)</f>
+        <v>3.29400549471893</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N11" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M11)</f>
+      <c r="P11" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O11)</f>
         <v>93.3333333333333</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="Q11" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="R11" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q11)</f>
+        <v>46.2962962962963</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q11" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P11)</f>
+      <c r="T11" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S11)</f>
         <v>86.1111111111111</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">(O11*Q11)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">(P11*R11)/10000</f>
+        <v>0.432098765432099</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="0" t="n">
         <f aca="false">AVERAGE(D9:D12)</f>
         <v>4.5</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="0" t="n">
         <v>151.623916431</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="0" t="n">
         <v>151.623916431</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="0" t="n">
         <f aca="false">AVERAGE(H9:H12)</f>
         <v>165.914886461</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="0" t="n">
         <v>26.4637940251438</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="0" t="n">
         <v>26.4637940251438</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="0" t="n">
         <f aca="false">AVERAGE(K9:K12)</f>
         <v>25.8579443852468</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="0" t="n">
+        <f aca="false">28.95-K12</f>
+        <v>2.4862059748562</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M12)</f>
+        <v>3.09205561475325</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N12" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M12)</f>
+      <c r="P12" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O12)</f>
         <v>95</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="Q12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="R12" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q12)</f>
+        <v>49.7222222222222</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q12" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P12)</f>
+      <c r="T12" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S12)</f>
         <v>89.5833333333333</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">(O12*Q12)/10000</f>
+        <v>0.6</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">(P12*R12)/10000</f>
+        <v>0.472361111111111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="0" t="n">
         <f aca="false">AVERAGE(D9:D13)</f>
         <v>4.2</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="0" t="n">
         <v>181.372779748</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="0" t="n">
         <v>181.372779748</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="0" t="n">
         <f aca="false">AVERAGE(H9:H13)</f>
         <v>169.0064651184</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="0" t="n">
         <v>34.2028795629617</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="0" t="n">
         <v>34.2028795629617</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="0" t="n">
         <f aca="false">AVERAGE(K9:K13)</f>
         <v>27.5269314207897</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="M13" s="0" t="n">
+        <f aca="false">28.95-K13</f>
+        <v>-5.2528795629617</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M13)</f>
+        <v>1.42306857921026</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N13" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M13)</f>
+      <c r="P13" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O13)</f>
         <v>96</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="Q13" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="R13" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q13)</f>
+        <v>47.7777777777778</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q13" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P13)</f>
+      <c r="T13" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S13)</f>
         <v>91.6666666666667</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">(O13*Q13)/10000</f>
+        <v>0.4</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">(P13*R13)/10000</f>
+        <v>0.458666666666667</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">AVERAGE(D45,D51,D59,D67,D75)</f>
+        <v>9.8</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AG13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="n">
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <f aca="false">AVERAGE(D9:D14)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="n">
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>121.572318979</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="0" t="n">
         <v>121.572318979</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="0" t="n">
         <f aca="false">AVERAGE(H9:H14)</f>
         <v>161.100774095167</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="0" t="n">
         <v>44.8805684279799</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="0" t="n">
         <v>44.8805684279799</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="L14" s="0" t="n">
         <f aca="false">AVERAGE(K9:K14)</f>
         <v>30.4192042553214</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="0" t="n">
+        <f aca="false">28.95-K14</f>
+        <v>-15.9305684279799</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M14)</f>
+        <v>-1.46920425532143</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N14" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M14)</f>
+      <c r="P14" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O14)</f>
         <v>96.6666666666667</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="Q14" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="R14" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q14)</f>
+        <v>51.4814814814815</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q14" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P14)</f>
-        <v>93.0555555555556</v>
+      <c r="T14" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S14)</f>
+        <v>93.0555555555555</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">(O14*Q14)/10000</f>
+        <v>0.7</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">(P14*R14)/10000</f>
+        <v>0.497654320987655</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <f aca="false">AVERAGE(D46,D52,D60,D68,D76)</f>
+        <v>7.4</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <f aca="false">AVERAGE(H45,H51,H59,H67,H75)</f>
+        <v>42.8333333333333</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <f aca="false">AVERAGE(J45,J51,J59,J67,J75)</f>
+        <v>62</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <f aca="false">AVERAGE(L45,L51,L59,L67,L75)</f>
+        <v>205.488167504</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
+        <f aca="false">AVERAGE(N45,N51,N59,N67,N75)</f>
+        <v>2.03341417087634</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="n">
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <f aca="false">AVERAGE(D9:D15)</f>
         <v>3.28571428571429</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>90.95703086</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="0" t="n">
         <v>90.95703086</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="0" t="n">
         <f aca="false">AVERAGE(H9:H15)</f>
         <v>151.080239347286</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="0" t="n">
         <v>47.661925134669</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="0" t="n">
         <v>47.661925134669</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="0" t="n">
         <f aca="false">AVERAGE(K9:K15)</f>
         <v>32.8824500952282</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="M15" s="0" t="n">
+        <f aca="false">28.95-K15</f>
+        <v>-18.711925134669</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M15)</f>
+        <v>-3.93245009522823</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N15" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M15)</f>
+      <c r="P15" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O15)</f>
         <v>97.1428571428571</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="Q15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="R15" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q15)</f>
+        <v>58.4126984126984</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q15" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P15)</f>
-        <v>94.0476190476191</v>
+      <c r="T15" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S15)</f>
+        <v>94.047619047619</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">(O15*Q15)/10000</f>
+        <v>1</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">(P15*R15)/10000</f>
+        <v>0.567437641723356</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <f aca="false">AVERAGE(D47,D53,D61,D69,D77)</f>
+        <v>6.6</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <f aca="false">AVERAGE(H46,H52,H60,H68,H76)</f>
+        <v>49.9722222222222</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <f aca="false">AVERAGE(J46,J52,J60,J68,J76)</f>
+        <v>73.0833333333333</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <f aca="false">AVERAGE(L46,L52,L60,L68,L76)</f>
+        <v>179.5274844034</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <f aca="false">AVERAGE(N46,N52,N60,N68,N76)</f>
+        <v>11.075015257853</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="0" t="n">
         <f aca="false">AVERAGE(D9:D16)</f>
         <v>3.125</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="0" t="n">
         <v>124.150051902</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="0" t="n">
         <v>124.150051902</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="0" t="n">
         <f aca="false">AVERAGE(H9:H16)</f>
         <v>147.713965916625</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="0" t="n">
         <v>22.5632727514385</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="0" t="n">
         <v>22.5632727514385</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="0" t="n">
         <f aca="false">AVERAGE(K9:K16)</f>
         <v>31.5925529272545</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="M16" s="0" t="n">
+        <f aca="false">28.95-K16</f>
+        <v>6.3867272485615</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">AVERAGE(M9:M16)</f>
+        <v>-2.64255292725451</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N16" s="5" t="n">
-        <f aca="false">AVERAGE(M9:M16)</f>
+      <c r="P16" s="0" t="n">
+        <f aca="false">AVERAGE(O9:O16)</f>
         <v>95</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="Q16" s="0" t="n">
         <v>87.5</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="R16" s="0" t="n">
+        <f aca="false">AVERAGE(Q9:Q16)</f>
+        <v>62.0486111111111</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>77.7777777777778</v>
       </c>
-      <c r="Q16" s="5" t="n">
-        <f aca="false">AVERAGE(P9:P16)</f>
+      <c r="T16" s="0" t="n">
+        <f aca="false">AVERAGE(S9:S16)</f>
         <v>92.0138888888889</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">(O16*Q16)/10000</f>
+        <v>0.7</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">(P16*R16)/10000</f>
+        <v>0.589461805555555</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">AVERAGE(D48,D54,D62,D70,D78)</f>
+        <v>6.1</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <f aca="false">AVERAGE(H47,H53,H61,H69,H77)</f>
+        <v>55.0714285714286</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <f aca="false">AVERAGE(J47,J53,J61,J69,J77)</f>
+        <v>76.5</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <f aca="false">AVERAGE(L47,L53,L61,L69,L77)</f>
+        <v>170.6346371294</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
+        <f aca="false">AVERAGE(N47,N53,N61,N69,N77)</f>
+        <v>14.0576401377252</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5" t="n">
+      <c r="D17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">AVERAGE(D17:D17)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5" t="n">
+      <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>173.852807037</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="0" t="n">
         <v>173.852807037</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="0" t="n">
         <f aca="false">AVERAGE(H17:H17)</f>
         <v>173.852807037</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="0" t="n">
         <v>28.0839650859947</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="0" t="n">
         <v>28.0839650859947</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="0" t="n">
         <f aca="false">AVERAGE(K17:K17)</f>
         <v>28.0839650859947</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="M17" s="0" t="n">
+        <f aca="false">28.95-K17</f>
+        <v>0.866034914005301</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M17)</f>
+        <v>0.866034914005301</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N17" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M17)</f>
+      <c r="P17" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O17)</f>
         <v>100</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="Q17" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="R17" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q17)</f>
+        <v>60</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q17" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P17)</f>
+      <c r="T17" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S17)</f>
         <v>100</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">(O17*Q17)/10000</f>
+        <v>0.6</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">(P17*R17)/10000</f>
+        <v>0.6</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <f aca="false">AVERAGE(D49,D55,D63,D71,D79)</f>
+        <v>5.48</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <f aca="false">AVERAGE(H48,H54,H62,H70,H78)</f>
+        <v>54.7242063492064</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <f aca="false">AVERAGE(J48,J54,J62,J70,J78)</f>
+        <v>77.375</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <f aca="false">AVERAGE(L48,L54,L62,L70,L78)</f>
+        <v>161.984020384</v>
+      </c>
+      <c r="AQ17" s="0" t="n">
+        <f aca="false">AVERAGE(N48,N54,N62,N70,N78)</f>
+        <v>16.2005066013744</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="0" t="n">
         <f aca="false">AVERAGE(D17:D18)</f>
         <v>6</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="0" t="n">
         <v>250.003049038</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="0" t="n">
         <v>250.003049038</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="0" t="n">
         <f aca="false">AVERAGE(H17:H18)</f>
         <v>211.9279280375</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="0" t="n">
         <v>23.1003295075633</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="0" t="n">
         <v>23.1003295075633</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="0" t="n">
         <f aca="false">AVERAGE(K17:K18)</f>
         <v>25.592147296779</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="0" t="n">
+        <f aca="false">28.95-K18</f>
+        <v>5.8496704924367</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M18)</f>
+        <v>3.357852703221</v>
+      </c>
+      <c r="O18" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N18" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M18)</f>
+      <c r="P18" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O18)</f>
         <v>100</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="Q18" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="R18" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q18)</f>
+        <v>55</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q18" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P18)</f>
+      <c r="T18" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S18)</f>
         <v>100</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">(O18*Q18)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">(P18*R18)/10000</f>
+        <v>0.55</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <f aca="false">AVERAGE(D50,D56,D64,D72,D80)</f>
+        <v>5.2</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <f aca="false">AVERAGE(H49,H55,H63,H71,H79)</f>
+        <v>55.3476190476191</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <f aca="false">AVERAGE(J49,J55,J63,J71,J79)</f>
+        <v>76.6222222222222</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <f aca="false">AVERAGE(L49,L55,L63,L71,L79)</f>
+        <v>158.10643119276</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
+        <f aca="false">AVERAGE(N49,N55,N63,N71,N79)</f>
+        <v>17.1102978150747</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="0" t="n">
         <f aca="false">AVERAGE(D17:D19)</f>
         <v>7.66666666666667</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="0" t="n">
         <v>193.135607071</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="0" t="n">
         <v>193.135607071</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="0" t="n">
         <f aca="false">AVERAGE(H17:H19)</f>
         <v>205.663821048667</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="0" t="n">
         <v>5.72574241132679</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="0" t="n">
         <v>5.72574241132679</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="L19" s="0" t="n">
         <f aca="false">AVERAGE(K17:K19)</f>
         <v>18.9700123349616</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="M19" s="0" t="n">
+        <f aca="false">28.95-K19</f>
+        <v>23.2242575886732</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M19)</f>
+        <v>9.9799876650384</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N19" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M19)</f>
+      <c r="P19" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O19)</f>
         <v>96.6666666666667</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="Q19" s="0" t="n">
         <v>77.7777777777778</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="R19" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q19)</f>
+        <v>62.5925925925926</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>87.5</v>
       </c>
-      <c r="Q19" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P19)</f>
+      <c r="T19" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S19)</f>
         <v>95.8333333333333</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">(O19*Q19)/10000</f>
+        <v>0.7</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">(P19*R19)/10000</f>
+        <v>0.605061728395062</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">AVERAGE(D57,D65,D73,D81)</f>
+        <v>5.25</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <f aca="false">AVERAGE(H50,H56,H64,H72,H80)</f>
+        <v>58.4285714285714</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <f aca="false">AVERAGE(J50,J56,J64,J72,J80)</f>
+        <v>79.0899470899471</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <f aca="false">AVERAGE(L50,L56,L64,L72,L80)</f>
+        <v>151.077130716867</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <f aca="false">AVERAGE(N50,N56,N64,N72,N80)</f>
+        <v>19.7075805026751</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="0" t="n">
         <f aca="false">AVERAGE(D17:D20)</f>
         <v>7.5</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="0" t="n">
         <v>128.968972359</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="0" t="n">
         <v>128.968972359</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="0" t="n">
         <f aca="false">AVERAGE(H17:H20)</f>
         <v>186.49010887625</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="0" t="n">
         <v>30.2116057758844</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="0" t="n">
         <v>30.2116057758844</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="L20" s="0" t="n">
         <f aca="false">AVERAGE(K17:K20)</f>
         <v>21.7804106951923</v>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="M20" s="0" t="n">
+        <f aca="false">28.95-K20</f>
+        <v>-1.2616057758844</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M20)</f>
+        <v>7.1695893048077</v>
+      </c>
+      <c r="O20" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N20" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M20)</f>
+      <c r="P20" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O20)</f>
         <v>97.5</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="Q20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="R20" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q20)</f>
+        <v>61.9444444444444</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q20" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P20)</f>
+      <c r="T20" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S20)</f>
         <v>96.875</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">(O20*Q20)/10000</f>
+        <v>0.6</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">(P20*R20)/10000</f>
+        <v>0.603958333333333</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">AVERAGE(D58,D66,D74,D82)</f>
+        <v>4.8125</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <f aca="false">AVERAGE(H57,H65,H73,H81)</f>
+        <v>59.734977324263</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <f aca="false">AVERAGE(J57,J65,J73,J81)</f>
+        <v>79.452947845805</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <f aca="false">AVERAGE(L57,L65,L73,L81)</f>
+        <v>148.294835346714</v>
+      </c>
+      <c r="AQ20" s="0" t="n">
+        <f aca="false">AVERAGE(N57,N65,N73,N81)</f>
+        <v>18.9887286598487</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="0" t="n">
         <f aca="false">AVERAGE(D17:D21)</f>
         <v>6.8</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="0" t="n">
         <v>106.860203414</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="0" t="n">
         <v>106.860203414</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="0" t="n">
         <f aca="false">AVERAGE(H17:H21)</f>
         <v>170.5641277838</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="0" t="n">
         <v>-3.89490715382565</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="0" t="n">
         <v>-3.89490715382565</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="L21" s="0" t="n">
         <f aca="false">AVERAGE(K17:K21)</f>
         <v>16.6453471253887</v>
       </c>
-      <c r="M21" s="5" t="n">
+      <c r="M21" s="0" t="n">
+        <f aca="false">28.95-K21</f>
+        <v>32.8449071538256</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M21)</f>
+        <v>12.3046528746113</v>
+      </c>
+      <c r="O21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="N21" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M21)</f>
+      <c r="P21" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O21)</f>
         <v>90</v>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="Q21" s="0" t="n">
         <v>33.3333333333333</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="R21" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q21)</f>
+        <v>56.2222222222222</v>
+      </c>
+      <c r="S21" s="0" t="n">
         <v>33.3333333333333</v>
       </c>
-      <c r="Q21" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P21)</f>
+      <c r="T21" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S21)</f>
         <v>84.1666666666667</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">(O21*Q21)/10000</f>
+        <v>0.2</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">(P21*R21)/10000</f>
+        <v>0.506</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <f aca="false">AVERAGE(H58,H66,H74,H82)</f>
+        <v>64.0302579365079</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <f aca="false">AVERAGE(J58,J66,J74,J82)</f>
+        <v>80.3546626984127</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <f aca="false">AVERAGE(L58,L66,L74,L82)</f>
+        <v>142.037954664</v>
+      </c>
+      <c r="AQ21" s="0" t="n">
+        <f aca="false">AVERAGE(N58,N66,N74,N82)</f>
+        <v>20.8060975201359</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="0" t="n">
         <f aca="false">AVERAGE(D17:D22)</f>
         <v>8.16666666666667</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="0" t="n">
         <v>145.437723158</v>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="0" t="n">
         <v>145.437723158</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="0" t="n">
         <f aca="false">AVERAGE(H17:H22)</f>
         <v>166.3763936795</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="0" t="n">
         <v>-3.56777213712156</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="0" t="n">
         <v>-3.56777213712156</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="L22" s="0" t="n">
         <f aca="false">AVERAGE(K17:K22)</f>
         <v>13.2764939149703</v>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="M22" s="0" t="n">
+        <f aca="false">28.95-K22</f>
+        <v>32.5177721371216</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M22)</f>
+        <v>15.6735060850297</v>
+      </c>
+      <c r="O22" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N22" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M22)</f>
+      <c r="P22" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O22)</f>
         <v>90</v>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="Q22" s="0" t="n">
         <v>66.6666666666667</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="R22" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q22)</f>
+        <v>57.962962962963</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>85.7142857142857</v>
       </c>
-      <c r="Q22" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P22)</f>
+      <c r="T22" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S22)</f>
         <v>84.4246031746032</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">(O22*Q22)/10000</f>
+        <v>0.6</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">(P22*R22)/10000</f>
+        <v>0.521666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="0" t="n">
         <f aca="false">AVERAGE(D17:D23)</f>
         <v>8.14285714285714</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="0" t="n">
         <v>110.902698938</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="0" t="n">
         <v>110.902698938</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="0" t="n">
         <f aca="false">AVERAGE(H17:H23)</f>
         <v>158.451580145</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="0" t="n">
         <v>17.8719889678834</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="0" t="n">
         <v>17.8719889678834</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="L23" s="0" t="n">
         <f aca="false">AVERAGE(K17:K23)</f>
         <v>13.9329932082436</v>
       </c>
-      <c r="M23" s="5" t="n">
+      <c r="M23" s="0" t="n">
+        <f aca="false">28.95-K23</f>
+        <v>11.0780110321166</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M23)</f>
+        <v>15.0170067917564</v>
+      </c>
+      <c r="O23" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N23" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M23)</f>
+      <c r="P23" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O23)</f>
         <v>90</v>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="Q23" s="0" t="n">
         <v>66.6666666666667</v>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="R23" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q23)</f>
+        <v>59.2063492063492</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <v>85.7142857142857</v>
       </c>
-      <c r="Q23" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P23)</f>
+      <c r="T23" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S23)</f>
         <v>84.608843537415</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">(O23*Q23)/10000</f>
+        <v>0.6</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">(P23*R23)/10000</f>
+        <v>0.532857142857143</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="0" t="n">
         <f aca="false">AVERAGE(D17:D24)</f>
         <v>7.375</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="0" t="n">
         <v>107.025239417</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="0" t="n">
         <v>107.025239417</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="0" t="n">
         <f aca="false">AVERAGE(H17:H24)</f>
         <v>152.023287554</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="0" t="n">
         <v>44.4112378386793</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="0" t="n">
         <v>44.4112378386793</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="L24" s="0" t="n">
         <f aca="false">AVERAGE(K17:K24)</f>
         <v>17.7427737870481</v>
       </c>
-      <c r="M24" s="5" t="n">
+      <c r="M24" s="0" t="n">
+        <f aca="false">28.95-K24</f>
+        <v>-15.4612378386793</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">AVERAGE(M17:M24)</f>
+        <v>11.2072262129519</v>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N24" s="5" t="n">
-        <f aca="false">AVERAGE(M17:M24)</f>
+      <c r="P24" s="0" t="n">
+        <f aca="false">AVERAGE(O17:O24)</f>
         <v>91.25</v>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="Q24" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="R24" s="0" t="n">
+        <f aca="false">AVERAGE(Q17:Q24)</f>
+        <v>64.3055555555556</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q24" s="5" t="n">
-        <f aca="false">AVERAGE(P17:P24)</f>
+      <c r="T24" s="0" t="n">
+        <f aca="false">AVERAGE(S17:S24)</f>
         <v>86.5327380952381</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">(O24*Q24)/10000</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">(P24*R24)/10000</f>
+        <v>0.586788194444445</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="0" t="n">
         <f aca="false">AVERAGE(D25:D25)</f>
         <v>6</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="0" t="n">
         <v>270.423616934</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="0" t="n">
         <v>270.423616934</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="0" t="n">
         <f aca="false">AVERAGE(H25:H25)</f>
         <v>270.423616934</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="0" t="n">
         <v>6.9401530440631</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="0" t="n">
         <v>6.9401530440631</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="L25" s="0" t="n">
         <f aca="false">AVERAGE(K25:K25)</f>
         <v>6.9401530440631</v>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="M25" s="0" t="n">
+        <f aca="false">28.95-K25</f>
+        <v>22.0098469559369</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M25)</f>
+        <v>22.0098469559369</v>
+      </c>
+      <c r="O25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N25" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M25)</f>
+      <c r="P25" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O25)</f>
         <v>80</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="Q25" s="0" t="n">
         <v>37.5</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="R25" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q25)</f>
+        <v>37.5</v>
+      </c>
+      <c r="S25" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="Q25" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P25)</f>
+      <c r="T25" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S25)</f>
         <v>60</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">(O25*Q25)/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">(P25*R25)/10000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="0" t="n">
         <f aca="false">AVERAGE(D25:D26)</f>
         <v>6</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="0" t="n">
         <v>147.765968671</v>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="0" t="n">
         <v>147.765968671</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="0" t="n">
         <f aca="false">AVERAGE(H25:H26)</f>
         <v>209.0947928025</v>
       </c>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="0" t="n">
         <v>30.5660269348598</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="0" t="n">
         <v>30.5660269348598</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="L26" s="0" t="n">
         <f aca="false">AVERAGE(K25:K26)</f>
         <v>18.7530899894615</v>
       </c>
-      <c r="M26" s="5" t="n">
+      <c r="M26" s="0" t="n">
+        <f aca="false">28.95-K26</f>
+        <v>-1.6160269348598</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M26)</f>
+        <v>10.1969100105386</v>
+      </c>
+      <c r="O26" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N26" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M26)</f>
+      <c r="P26" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O26)</f>
         <v>90</v>
       </c>
-      <c r="O26" s="5" t="n">
+      <c r="Q26" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="R26" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q26)</f>
+        <v>43.75</v>
+      </c>
+      <c r="S26" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q26" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P26)</f>
+      <c r="T26" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S26)</f>
         <v>80</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">(O26*Q26)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">(P26*R26)/10000</f>
+        <v>0.39375</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="0" t="n">
         <f aca="false">AVERAGE(D25:D27)</f>
         <v>6</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="0" t="n">
         <v>125.123491314</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="0" t="n">
         <v>125.123491314</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="0" t="n">
         <f aca="false">AVERAGE(H25:H27)</f>
         <v>181.104358973</v>
       </c>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="0" t="n">
         <v>12.4868993071597</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="0" t="n">
         <v>12.4868993071597</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="L27" s="0" t="n">
         <f aca="false">AVERAGE(K25:K27)</f>
-        <v>16.6643597620276</v>
-      </c>
-      <c r="M27" s="5" t="n">
+        <v>16.6643597620275</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="false">28.95-K27</f>
+        <v>16.4631006928403</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M27)</f>
+        <v>12.2856402379725</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="N27" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M27)</f>
+      <c r="P27" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O27)</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="Q27" s="0" t="n">
         <v>57.1428571428571</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="R27" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q27)</f>
+        <v>48.2142857142857</v>
+      </c>
+      <c r="S27" s="0" t="n">
         <v>66.6666666666667</v>
       </c>
-      <c r="Q27" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P27)</f>
+      <c r="T27" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S27)</f>
         <v>75.5555555555556</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">(O27*Q27)/10000</f>
+        <v>0.4</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">(P27*R27)/10000</f>
+        <v>0.401785714285714</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="0" t="n">
         <f aca="false">AVERAGE(D25:D28)</f>
         <v>5</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="0" t="n">
         <v>134.096172417</v>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="0" t="n">
         <v>134.096172417</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="0" t="n">
         <f aca="false">AVERAGE(H25:H28)</f>
         <v>169.352312334</v>
       </c>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="0" t="n">
         <v>21.9678333876312</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="0" t="n">
         <v>21.9678333876312</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="L28" s="0" t="n">
         <f aca="false">AVERAGE(K25:K28)</f>
-        <v>17.9902281684285</v>
-      </c>
-      <c r="M28" s="5" t="n">
+        <v>17.9902281684284</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="false">28.95-K28</f>
+        <v>6.9821666123688</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M28)</f>
+        <v>10.9597718315716</v>
+      </c>
+      <c r="O28" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N28" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M28)</f>
+      <c r="P28" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O28)</f>
         <v>82.5</v>
       </c>
-      <c r="O28" s="5" t="n">
+      <c r="Q28" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="R28" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q28)</f>
+        <v>48.6607142857143</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>66.6666666666667</v>
       </c>
-      <c r="Q28" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P28)</f>
+      <c r="T28" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S28)</f>
         <v>73.3333333333333</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">(O28*Q28)/10000</f>
+        <v>0.4</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">(P28*R28)/10000</f>
+        <v>0.401450892857143</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="0" t="n">
         <f aca="false">AVERAGE(D25:D29)</f>
         <v>5.4</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="0" t="n">
         <v>193.18420446</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="0" t="n">
         <v>193.18420446</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="0" t="n">
         <f aca="false">AVERAGE(H25:H29)</f>
         <v>174.1186907592</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="0" t="n">
         <v>-1.50208324894171</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="0" t="n">
         <v>-1.50208324894171</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="L29" s="0" t="n">
         <f aca="false">AVERAGE(K25:K29)</f>
         <v>14.0917658849544</v>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="M29" s="0" t="n">
+        <f aca="false">28.95-K29</f>
+        <v>30.4520832489417</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M29)</f>
+        <v>14.8582341150456</v>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="N29" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M29)</f>
+      <c r="P29" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O29)</f>
         <v>80</v>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="Q29" s="0" t="n">
         <v>71.4285714285714</v>
       </c>
-      <c r="P29" s="5" t="n">
+      <c r="R29" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q29)</f>
+        <v>53.2142857142857</v>
+      </c>
+      <c r="S29" s="0" t="n">
         <v>62.5</v>
       </c>
-      <c r="Q29" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P29)</f>
+      <c r="T29" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S29)</f>
         <v>71.1666666666667</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <f aca="false">(O29*Q29)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">(P29*R29)/10000</f>
+        <v>0.425714285714286</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="n">
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <f aca="false">AVERAGE(D25:D30)</f>
         <v>4.66666666666667</v>
       </c>
-      <c r="F30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5" t="n">
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>110.521336183</v>
       </c>
-      <c r="H30" s="5" t="n">
+      <c r="H30" s="0" t="n">
         <v>110.521336183</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="0" t="n">
         <f aca="false">AVERAGE(H25:H30)</f>
         <v>163.519131663167</v>
       </c>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="0" t="n">
         <v>25.7447843603091</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="0" t="n">
         <v>25.7447843603091</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="L30" s="0" t="n">
         <f aca="false">AVERAGE(K25:K30)</f>
         <v>16.0339356308469</v>
       </c>
-      <c r="M30" s="5" t="n">
+      <c r="M30" s="0" t="n">
+        <f aca="false">28.95-K30</f>
+        <v>3.2052156396909</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M30)</f>
+        <v>12.9160643691531</v>
+      </c>
+      <c r="O30" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N30" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M30)</f>
+      <c r="P30" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O30)</f>
         <v>80</v>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="Q30" s="0" t="n">
         <v>62.5</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="R30" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q30)</f>
+        <v>54.7619047619048</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>71.4285714285714</v>
       </c>
-      <c r="Q30" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P30)</f>
+      <c r="T30" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S30)</f>
         <v>71.2103174603175</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">(O30*Q30)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">(P30*R30)/10000</f>
+        <v>0.438095238095238</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="0" t="n">
         <f aca="false">AVERAGE(D25:D31)</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="0" t="n">
         <v>102.444865672</v>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="0" t="n">
         <v>102.444865672</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="0" t="n">
         <f aca="false">AVERAGE(H25:H31)</f>
         <v>154.794236521571</v>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="0" t="n">
         <v>19.4105333451602</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="0" t="n">
         <v>19.4105333451602</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="L31" s="0" t="n">
         <f aca="false">AVERAGE(K25:K31)</f>
-        <v>16.5163067328917</v>
-      </c>
-      <c r="M31" s="5" t="n">
+        <v>16.5163067328916</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">28.95-K31</f>
+        <v>9.5394666548398</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M31)</f>
+        <v>12.4336932671084</v>
+      </c>
+      <c r="O31" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N31" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M31)</f>
+      <c r="P31" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O31)</f>
         <v>80</v>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="Q31" s="0" t="n">
         <v>87.5</v>
       </c>
-      <c r="P31" s="5" t="n">
+      <c r="R31" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q31)</f>
+        <v>59.4387755102041</v>
+      </c>
+      <c r="S31" s="0" t="n">
         <v>77.7777777777778</v>
       </c>
-      <c r="Q31" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P31)</f>
+      <c r="T31" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S31)</f>
         <v>72.1485260770975</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">(O31*Q31)/10000</f>
+        <v>0.7</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">(P31*R31)/10000</f>
+        <v>0.475510204081633</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="0" t="n">
         <f aca="false">AVERAGE(D25:D32)</f>
         <v>4.25</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="0" t="n">
         <v>82.690410366</v>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H32" s="0" t="n">
         <v>82.690410366</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="0" t="n">
         <f aca="false">AVERAGE(H25:H32)</f>
         <v>145.781258252125</v>
       </c>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="0" t="n">
         <v>27.4383393696821</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="0" t="n">
         <v>27.4383393696821</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="L32" s="0" t="n">
         <f aca="false">AVERAGE(K25:K32)</f>
-        <v>17.8815608124905</v>
-      </c>
-      <c r="M32" s="5" t="n">
+        <v>17.8815608124904</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <f aca="false">28.95-K32</f>
+        <v>1.5116606303179</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">AVERAGE(M25:M32)</f>
+        <v>11.0684391875096</v>
+      </c>
+      <c r="O32" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N32" s="5" t="n">
-        <f aca="false">AVERAGE(M25:M32)</f>
+      <c r="P32" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O32)</f>
         <v>80</v>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="Q32" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="P32" s="5" t="n">
+      <c r="R32" s="0" t="n">
+        <f aca="false">AVERAGE(Q25:Q32)</f>
+        <v>64.5089285714286</v>
+      </c>
+      <c r="S32" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="Q32" s="5" t="n">
-        <f aca="false">AVERAGE(P25:P32)</f>
+      <c r="T32" s="0" t="n">
+        <f aca="false">AVERAGE(S25:S32)</f>
         <v>73.1299603174603</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">(O32*Q32)/10000</f>
+        <v>0.8</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <f aca="false">(P32*R32)/10000</f>
+        <v>0.516071428571429</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="0" t="n">
         <f aca="false">AVERAGE(D33:D33)</f>
         <v>16</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="0" t="n">
         <v>179.407903164</v>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H33" s="0" t="n">
         <v>179.407903164</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="0" t="n">
         <f aca="false">AVERAGE(H33:H33)</f>
         <v>179.407903164</v>
       </c>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="0" t="n">
         <v>-24.8045793213518</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="0" t="n">
         <v>-24.8045793213518</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="L33" s="0" t="n">
         <f aca="false">AVERAGE(K33:K33)</f>
         <v>-24.8045793213518</v>
       </c>
-      <c r="M33" s="5" t="n">
+      <c r="M33" s="0" t="n">
+        <f aca="false">28.95-K33</f>
+        <v>53.7545793213518</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M33)</f>
+        <v>53.7545793213518</v>
+      </c>
+      <c r="O33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="N33" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M33)</f>
+      <c r="P33" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O33)</f>
         <v>60</v>
       </c>
-      <c r="O33" s="5" t="n">
+      <c r="Q33" s="0" t="n">
         <v>66.6666666666667</v>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="R33" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q33)</f>
+        <v>66.6666666666667</v>
+      </c>
+      <c r="S33" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Q33" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P33)</f>
+      <c r="T33" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S33)</f>
         <v>50</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">(O33*Q33)/10000</f>
+        <v>0.4</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <f aca="false">(P33*R33)/10000</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="0" t="n">
         <f aca="false">AVERAGE(D33:D34)</f>
         <v>12.5</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="0" t="n">
         <v>102.464393441</v>
       </c>
-      <c r="H34" s="5" t="n">
+      <c r="H34" s="0" t="n">
         <v>102.464393441</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="0" t="n">
         <f aca="false">AVERAGE(H33:H34)</f>
         <v>140.9361483025</v>
       </c>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="0" t="n">
         <v>-23.6574938157635</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="0" t="n">
         <v>-23.6574938157635</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="L34" s="0" t="n">
         <f aca="false">AVERAGE(K33:K34)</f>
         <v>-24.2310365685576</v>
       </c>
-      <c r="M34" s="5" t="n">
+      <c r="M34" s="0" t="n">
+        <f aca="false">28.95-K34</f>
+        <v>52.6074938157635</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M34)</f>
+        <v>53.1810365685577</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N34" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M34)</f>
+      <c r="P34" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O34)</f>
         <v>55</v>
       </c>
-      <c r="O34" s="5" t="n">
+      <c r="Q34" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="P34" s="5" t="n">
+      <c r="R34" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q34)</f>
+        <v>63.3333333333334</v>
+      </c>
+      <c r="S34" s="0" t="n">
         <v>37.5</v>
       </c>
-      <c r="Q34" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P34)</f>
+      <c r="T34" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S34)</f>
         <v>43.75</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">(O34*Q34)/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <f aca="false">(P34*R34)/10000</f>
+        <v>0.348333333333334</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="0" t="n">
         <f aca="false">AVERAGE(D33:D35)</f>
         <v>9.66666666666667</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="0" t="n">
         <v>144.195718117</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="0" t="n">
         <v>144.195718117</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="0" t="n">
         <f aca="false">AVERAGE(H33:H35)</f>
         <v>142.022671574</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="0" t="n">
         <v>5.29993661819204</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="0" t="n">
         <v>5.29993661819204</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="L35" s="0" t="n">
         <f aca="false">AVERAGE(K33:K35)</f>
         <v>-14.3873788396411</v>
       </c>
-      <c r="M35" s="5" t="n">
+      <c r="M35" s="0" t="n">
+        <f aca="false">28.95-K35</f>
+        <v>23.650063381808</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M35)</f>
+        <v>43.3373788396411</v>
+      </c>
+      <c r="O35" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="N35" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M35)</f>
+      <c r="P35" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O35)</f>
         <v>60</v>
       </c>
-      <c r="O35" s="5" t="n">
+      <c r="Q35" s="0" t="n">
         <v>71.4285714285714</v>
       </c>
-      <c r="P35" s="5" t="n">
+      <c r="R35" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q35)</f>
+        <v>66.031746031746</v>
+      </c>
+      <c r="S35" s="0" t="n">
         <v>62.5</v>
       </c>
-      <c r="Q35" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P35)</f>
+      <c r="T35" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S35)</f>
         <v>50</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">(O35*Q35)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <f aca="false">(P35*R35)/10000</f>
+        <v>0.396190476190476</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="0" t="n">
         <f aca="false">AVERAGE(D33:D36)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="0" t="n">
         <v>148.186784668</v>
       </c>
-      <c r="H36" s="5" t="n">
+      <c r="H36" s="0" t="n">
         <v>148.186784668</v>
       </c>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="0" t="n">
         <f aca="false">AVERAGE(H33:H36)</f>
         <v>143.5636998475</v>
       </c>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="0" t="n">
         <v>11.3012959135887</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="0" t="n">
         <v>11.3012959135887</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="L36" s="0" t="n">
         <f aca="false">AVERAGE(K33:K36)</f>
-        <v>-7.96521015133363</v>
-      </c>
-      <c r="M36" s="5" t="n">
+        <v>-7.96521015133364</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <f aca="false">28.95-K36</f>
+        <v>17.6487040864113</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M36)</f>
+        <v>36.9152101513336</v>
+      </c>
+      <c r="O36" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="N36" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M36)</f>
+      <c r="P36" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O36)</f>
         <v>62.5</v>
       </c>
-      <c r="O36" s="5" t="n">
+      <c r="Q36" s="0" t="n">
         <v>42.8571428571429</v>
       </c>
-      <c r="P36" s="5" t="n">
+      <c r="R36" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q36)</f>
+        <v>60.2380952380952</v>
+      </c>
+      <c r="S36" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Q36" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P36)</f>
+      <c r="T36" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S36)</f>
         <v>50</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <f aca="false">(O36*Q36)/10000</f>
+        <v>0.3</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <f aca="false">(P36*R36)/10000</f>
+        <v>0.376488095238095</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="n">
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <f aca="false">AVERAGE(D33:D37)</f>
         <v>6.6</v>
       </c>
-      <c r="F37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="n">
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>110.240288882</v>
       </c>
-      <c r="H37" s="5" t="n">
+      <c r="H37" s="0" t="n">
         <v>110.240288882</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="0" t="n">
         <f aca="false">AVERAGE(H33:H37)</f>
         <v>136.8990176544</v>
       </c>
-      <c r="J37" s="5" t="n">
+      <c r="J37" s="0" t="n">
         <v>35.8889396872891</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="0" t="n">
         <v>35.8889396872891</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="L37" s="0" t="n">
         <f aca="false">AVERAGE(K33:K37)</f>
-        <v>0.805619816390925</v>
-      </c>
-      <c r="M37" s="5" t="n">
+        <v>0.805619816390909</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="false">28.95-K37</f>
+        <v>-6.9389396872891</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M37)</f>
+        <v>28.1443801836091</v>
+      </c>
+      <c r="O37" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N37" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M37)</f>
+      <c r="P37" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O37)</f>
         <v>68</v>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="Q37" s="0" t="n">
         <v>55.5555555555556</v>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="R37" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q37)</f>
+        <v>59.3015873015873</v>
+      </c>
+      <c r="S37" s="0" t="n">
         <v>83.3333333333333</v>
       </c>
-      <c r="Q37" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P37)</f>
+      <c r="T37" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S37)</f>
         <v>56.6666666666667</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <f aca="false">(O37*Q37)/10000</f>
+        <v>0.5</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <f aca="false">(P37*R37)/10000</f>
+        <v>0.403250793650794</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="D38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="0" t="n">
         <f aca="false">AVERAGE(D33:D38)</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="G38" s="0" t="n">
         <v>109.97829521</v>
       </c>
-      <c r="H38" s="5" t="n">
+      <c r="H38" s="0" t="n">
         <v>109.97829521</v>
       </c>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="0" t="n">
         <f aca="false">AVERAGE(H33:H38)</f>
         <v>132.412230580333</v>
       </c>
-      <c r="J38" s="5" t="n">
+      <c r="J38" s="0" t="n">
         <v>45.8484726366542</v>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="0" t="n">
         <v>45.8484726366542</v>
       </c>
-      <c r="L38" s="5" t="n">
+      <c r="L38" s="0" t="n">
         <f aca="false">AVERAGE(K33:K38)</f>
-        <v>8.31276195310147</v>
-      </c>
-      <c r="M38" s="5" t="n">
+        <v>8.31276195310146</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="false">28.95-K38</f>
+        <v>-16.8984726366542</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M38)</f>
+        <v>20.6372380468985</v>
+      </c>
+      <c r="O38" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N38" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M38)</f>
+      <c r="P38" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O38)</f>
         <v>73.3333333333333</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="Q38" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="P38" s="5" t="n">
+      <c r="R38" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q38)</f>
+        <v>61.0846560846561</v>
+      </c>
+      <c r="S38" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q38" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P38)</f>
+      <c r="T38" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S38)</f>
         <v>63.8888888888889</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">(O38*Q38)/10000</f>
+        <v>0.7</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <f aca="false">(P38*R38)/10000</f>
+        <v>0.447954144620811</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5" t="n">
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <f aca="false">AVERAGE(D33:D39)</f>
         <v>5</v>
       </c>
-      <c r="F39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5" t="n">
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>107.499614129</v>
       </c>
-      <c r="H39" s="5" t="n">
+      <c r="H39" s="0" t="n">
         <v>107.499614129</v>
       </c>
-      <c r="I39" s="5" t="n">
+      <c r="I39" s="0" t="n">
         <f aca="false">AVERAGE(H33:H39)</f>
         <v>128.853285373</v>
       </c>
-      <c r="J39" s="5" t="n">
+      <c r="J39" s="0" t="n">
         <v>38.4855805026095</v>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="K39" s="0" t="n">
         <v>38.4855805026095</v>
       </c>
-      <c r="L39" s="5" t="n">
+      <c r="L39" s="0" t="n">
         <f aca="false">AVERAGE(K33:K39)</f>
         <v>12.6231646030312</v>
       </c>
-      <c r="M39" s="5" t="n">
+      <c r="M39" s="0" t="n">
+        <f aca="false">28.95-K39</f>
+        <v>-9.5355805026095</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M39)</f>
+        <v>16.3268353969688</v>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N39" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M39)</f>
+      <c r="P39" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O39)</f>
         <v>75.7142857142857</v>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="Q39" s="0" t="n">
         <v>66.6666666666667</v>
       </c>
-      <c r="P39" s="5" t="n">
+      <c r="R39" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q39)</f>
+        <v>61.8820861678005</v>
+      </c>
+      <c r="S39" s="0" t="n">
         <v>85.7142857142857</v>
       </c>
-      <c r="Q39" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P39)</f>
-        <v>67.0068027210885</v>
+      <c r="T39" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S39)</f>
+        <v>67.0068027210884</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">(O39*Q39)/10000</f>
+        <v>0.6</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <f aca="false">(P39*R39)/10000</f>
+        <v>0.468535795270489</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="n">
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
         <f aca="false">AVERAGE(D33:D40)</f>
         <v>4.5</v>
       </c>
-      <c r="F40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5" t="n">
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>79.093457855</v>
       </c>
-      <c r="H40" s="5" t="n">
+      <c r="H40" s="0" t="n">
         <v>79.093457855</v>
       </c>
-      <c r="I40" s="5" t="n">
+      <c r="I40" s="0" t="n">
         <f aca="false">AVERAGE(H33:H40)</f>
         <v>122.63330693325</v>
       </c>
-      <c r="J40" s="5" t="n">
+      <c r="J40" s="0" t="n">
         <v>39.6978682087877</v>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="K40" s="0" t="n">
         <v>39.6978682087877</v>
       </c>
-      <c r="L40" s="5" t="n">
+      <c r="L40" s="0" t="n">
         <f aca="false">AVERAGE(K33:K40)</f>
         <v>16.0075025537507</v>
       </c>
-      <c r="M40" s="5" t="n">
+      <c r="M40" s="0" t="n">
+        <f aca="false">28.95-K40</f>
+        <v>-10.7478682087877</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">AVERAGE(M33:M40)</f>
+        <v>12.9424974462493</v>
+      </c>
+      <c r="O40" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="N40" s="5" t="n">
-        <f aca="false">AVERAGE(M33:M40)</f>
+      <c r="P40" s="0" t="n">
+        <f aca="false">AVERAGE(O33:O40)</f>
         <v>77.5</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="Q40" s="0" t="n">
         <v>88.8888888888889</v>
       </c>
-      <c r="P40" s="5" t="n">
+      <c r="R40" s="0" t="n">
+        <f aca="false">AVERAGE(Q33:Q40)</f>
+        <v>65.2579365079365</v>
+      </c>
+      <c r="S40" s="0" t="n">
         <v>88.8888888888889</v>
       </c>
-      <c r="Q40" s="5" t="n">
-        <f aca="false">AVERAGE(P33:P40)</f>
+      <c r="T40" s="0" t="n">
+        <f aca="false">AVERAGE(S33:S40)</f>
         <v>69.7420634920635</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">(O40*Q40)/10000</f>
+        <v>0.8</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <f aca="false">(P40*R40)/10000</f>
+        <v>0.505749007936508</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
@@ -3063,36 +4728,51 @@
         <v>6</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F44" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="0" t="s">
+      <c r="Q44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="R44" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
@@ -3105,46 +4785,66 @@
         <f aca="false">E3</f>
         <v>18</v>
       </c>
-      <c r="E45" s="5" t="n">
-        <f aca="false">M3</f>
+      <c r="E45" s="0" t="n">
+        <f aca="false">O3</f>
         <v>60</v>
       </c>
-      <c r="F45" s="5" t="n">
-        <f aca="false">N3</f>
+      <c r="F45" s="0" t="n">
+        <f aca="false">P3</f>
         <v>60</v>
       </c>
-      <c r="G45" s="5" t="n">
-        <f aca="false">O3</f>
+      <c r="G45" s="0" t="n">
+        <f aca="false">Q3</f>
         <v>16.6666666666667</v>
       </c>
-      <c r="H45" s="5" t="n">
-        <f aca="false">P3</f>
+      <c r="H45" s="0" t="n">
+        <f aca="false">R3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">S3</f>
         <v>25</v>
       </c>
-      <c r="I45" s="5" t="n">
-        <f aca="false">Q3</f>
+      <c r="J45" s="0" t="n">
+        <f aca="false">T3</f>
         <v>25</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="K45" s="0" t="n">
         <f aca="false">H3</f>
         <v>189.188177375</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="L45" s="0" t="n">
         <f aca="false">I3</f>
         <v>189.188177375</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="M45" s="0" t="n">
         <f aca="false">J3</f>
         <v>-23.3409391038565</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="N45" s="0" t="n">
         <f aca="false">L3</f>
         <v>-23.3409391038565</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">M3</f>
+        <v>52.2909391038565</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">N3</f>
+        <v>52.2909391038565</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">U3</f>
+        <v>0.1</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">V3</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2</v>
@@ -3157,46 +4857,66 @@
         <f aca="false">E4</f>
         <v>9</v>
       </c>
-      <c r="E46" s="5" t="n">
-        <f aca="false">M4</f>
+      <c r="E46" s="0" t="n">
+        <f aca="false">O4</f>
         <v>100</v>
       </c>
-      <c r="F46" s="5" t="n">
-        <f aca="false">N4</f>
+      <c r="F46" s="0" t="n">
+        <f aca="false">P4</f>
         <v>80</v>
       </c>
-      <c r="G46" s="5" t="n">
-        <f aca="false">O4</f>
+      <c r="G46" s="0" t="n">
+        <f aca="false">Q4</f>
         <v>70</v>
       </c>
-      <c r="H46" s="5" t="n">
-        <f aca="false">P4</f>
+      <c r="H46" s="0" t="n">
+        <f aca="false">R4</f>
+        <v>43.3333333333334</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">S4</f>
         <v>100</v>
       </c>
-      <c r="I46" s="5" t="n">
-        <f aca="false">Q4</f>
+      <c r="J46" s="0" t="n">
+        <f aca="false">T4</f>
         <v>62.5</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="K46" s="0" t="n">
         <f aca="false">H4</f>
         <v>133.41330375</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="L46" s="0" t="n">
         <f aca="false">I4</f>
         <v>161.3007405625</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="M46" s="0" t="n">
         <f aca="false">J4</f>
         <v>46.749903939956</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="N46" s="0" t="n">
         <f aca="false">L4</f>
         <v>11.7044824180498</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">M4</f>
+        <v>-17.799903939956</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">N4</f>
+        <v>17.2455175819503</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">U4</f>
+        <v>0.7</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">V4</f>
+        <v>0.346666666666667</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>3</v>
@@ -3209,46 +4929,66 @@
         <f aca="false">E5</f>
         <v>6</v>
       </c>
-      <c r="E47" s="5" t="n">
-        <f aca="false">M5</f>
+      <c r="E47" s="0" t="n">
+        <f aca="false">O5</f>
         <v>100</v>
       </c>
-      <c r="F47" s="5" t="n">
-        <f aca="false">N5</f>
+      <c r="F47" s="0" t="n">
+        <f aca="false">P5</f>
         <v>86.6666666666667</v>
       </c>
-      <c r="G47" s="5" t="n">
-        <f aca="false">O5</f>
+      <c r="G47" s="0" t="n">
+        <f aca="false">Q5</f>
         <v>70</v>
       </c>
-      <c r="H47" s="5" t="n">
-        <f aca="false">P5</f>
+      <c r="H47" s="0" t="n">
+        <f aca="false">R5</f>
+        <v>52.2222222222222</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">S5</f>
         <v>100</v>
       </c>
-      <c r="I47" s="5" t="n">
-        <f aca="false">Q5</f>
+      <c r="J47" s="0" t="n">
+        <f aca="false">T5</f>
         <v>75</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="K47" s="0" t="n">
         <f aca="false">H5</f>
         <v>138.509891616</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="L47" s="0" t="n">
         <f aca="false">I5</f>
         <v>153.703790913667</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="M47" s="0" t="n">
         <f aca="false">J5</f>
         <v>46.7466739418908</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="N47" s="0" t="n">
         <f aca="false">L5</f>
         <v>23.3852129259968</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">M5</f>
+        <v>-17.7966739418908</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">N5</f>
+        <v>5.56478707400323</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">U5</f>
+        <v>0.7</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <f aca="false">V5</f>
+        <v>0.452592592592593</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>4</v>
@@ -3261,46 +5001,66 @@
         <f aca="false">E6</f>
         <v>5.5</v>
       </c>
-      <c r="E48" s="5" t="n">
-        <f aca="false">M6</f>
+      <c r="E48" s="0" t="n">
+        <f aca="false">O6</f>
         <v>90</v>
       </c>
-      <c r="F48" s="5" t="n">
-        <f aca="false">N6</f>
+      <c r="F48" s="0" t="n">
+        <f aca="false">P6</f>
         <v>87.5</v>
       </c>
-      <c r="G48" s="5" t="n">
-        <f aca="false">O6</f>
+      <c r="G48" s="0" t="n">
+        <f aca="false">Q6</f>
         <v>55.5555555555556</v>
       </c>
-      <c r="H48" s="5" t="n">
-        <f aca="false">P6</f>
+      <c r="H48" s="0" t="n">
+        <f aca="false">R6</f>
+        <v>53.0555555555556</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">S6</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="I48" s="5" t="n">
-        <f aca="false">Q6</f>
+      <c r="J48" s="0" t="n">
+        <f aca="false">T6</f>
         <v>77.0833333333333</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="K48" s="0" t="n">
         <f aca="false">H6</f>
         <v>117.285004864</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="L48" s="0" t="n">
         <f aca="false">I6</f>
         <v>144.59909440125</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="M48" s="0" t="n">
         <f aca="false">J6</f>
         <v>23.2010008593627</v>
       </c>
-      <c r="M48" s="0" t="n">
+      <c r="N48" s="0" t="n">
         <f aca="false">L6</f>
-        <v>23.3391599093383</v>
+        <v>23.3391599093382</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">M6</f>
+        <v>5.7489991406373</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">N6</f>
+        <v>5.61084009066175</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">U6</f>
+        <v>0.5</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">V6</f>
+        <v>0.464236111111112</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5</v>
@@ -3313,46 +5073,66 @@
         <f aca="false">E7</f>
         <v>4.4</v>
       </c>
-      <c r="E49" s="5" t="n">
-        <f aca="false">M7</f>
+      <c r="E49" s="0" t="n">
+        <f aca="false">O7</f>
         <v>90</v>
       </c>
-      <c r="F49" s="5" t="n">
-        <f aca="false">N7</f>
+      <c r="F49" s="0" t="n">
+        <f aca="false">P7</f>
         <v>88</v>
       </c>
-      <c r="G49" s="5" t="n">
-        <f aca="false">O7</f>
+      <c r="G49" s="0" t="n">
+        <f aca="false">Q7</f>
         <v>88.8888888888889</v>
       </c>
-      <c r="H49" s="5" t="n">
-        <f aca="false">P7</f>
+      <c r="H49" s="0" t="n">
+        <f aca="false">R7</f>
+        <v>60.2222222222222</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">S7</f>
         <v>88.8888888888889</v>
       </c>
-      <c r="I49" s="5" t="n">
-        <f aca="false">Q7</f>
-        <v>79.4444444444445</v>
-      </c>
       <c r="J49" s="0" t="n">
+        <f aca="false">T7</f>
+        <v>79.4444444444444</v>
+      </c>
+      <c r="K49" s="0" t="n">
         <f aca="false">H7</f>
         <v>121.322895635</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="L49" s="0" t="n">
         <f aca="false">I7</f>
         <v>139.943854648</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="M49" s="0" t="n">
         <f aca="false">J7</f>
         <v>39.0524845018946</v>
       </c>
-      <c r="M49" s="0" t="n">
+      <c r="N49" s="0" t="n">
         <f aca="false">L7</f>
         <v>26.4818248278495</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">M7</f>
+        <v>-10.1024845018946</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">N7</f>
+        <v>2.46817517215048</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">U7</f>
+        <v>0.8</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <f aca="false">V7</f>
+        <v>0.529955555555555</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6</v>
@@ -3365,46 +5145,66 @@
         <f aca="false">E8</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="E50" s="5" t="n">
-        <f aca="false">M8</f>
-        <v>100</v>
-      </c>
-      <c r="F50" s="5" t="n">
-        <f aca="false">N8</f>
-        <v>90</v>
-      </c>
-      <c r="G50" s="5" t="n">
+      <c r="E50" s="0" t="n">
         <f aca="false">O8</f>
         <v>100</v>
       </c>
-      <c r="H50" s="5" t="n">
+      <c r="F50" s="0" t="n">
         <f aca="false">P8</f>
+        <v>90</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">Q8</f>
         <v>100</v>
       </c>
-      <c r="I50" s="5" t="n">
-        <f aca="false">Q8</f>
+      <c r="H50" s="0" t="n">
+        <f aca="false">R8</f>
+        <v>66.8518518518519</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">S8</f>
+        <v>100</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">T8</f>
         <v>82.8703703703704</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="K50" s="0" t="n">
         <f aca="false">H8</f>
         <v>92.143468157</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="L50" s="0" t="n">
         <f aca="false">I8</f>
         <v>131.977123566167</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="M50" s="0" t="n">
         <f aca="false">J8</f>
         <v>50.5639164155635</v>
       </c>
-      <c r="M50" s="0" t="n">
+      <c r="N50" s="0" t="n">
         <f aca="false">L8</f>
         <v>30.4955067591352</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">M8</f>
+        <v>-21.6139164155635</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">N8</f>
+        <v>-1.54550675913518</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">U8</f>
+        <v>1</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">V8</f>
+        <v>0.601666666666667</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
@@ -3417,46 +5217,66 @@
         <f aca="false">E9</f>
         <v>4</v>
       </c>
-      <c r="E51" s="5" t="n">
-        <f aca="false">M9</f>
+      <c r="E51" s="0" t="n">
+        <f aca="false">O9</f>
         <v>90</v>
       </c>
-      <c r="F51" s="5" t="n">
-        <f aca="false">N9</f>
+      <c r="F51" s="0" t="n">
+        <f aca="false">P9</f>
         <v>90</v>
       </c>
-      <c r="G51" s="5" t="n">
-        <f aca="false">O9</f>
+      <c r="G51" s="0" t="n">
+        <f aca="false">Q9</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="H51" s="5" t="n">
-        <f aca="false">P9</f>
+      <c r="H51" s="0" t="n">
+        <f aca="false">R9</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">S9</f>
         <v>75</v>
       </c>
-      <c r="I51" s="5" t="n">
-        <f aca="false">Q9</f>
+      <c r="J51" s="0" t="n">
+        <f aca="false">T9</f>
         <v>75</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="K51" s="0" t="n">
         <f aca="false">H9</f>
         <v>214.56833301</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="L51" s="0" t="n">
         <f aca="false">I9</f>
         <v>214.56833301</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <f aca="false">J9</f>
         <v>23.2884711495322</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="N51" s="0" t="n">
         <f aca="false">L9</f>
         <v>23.2884711495322</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">M9</f>
+        <v>5.6615288504678</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">N9</f>
+        <v>5.6615288504678</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">U9</f>
+        <v>0.3</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">V9</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2</v>
@@ -3469,46 +5289,66 @@
         <f aca="false">E10</f>
         <v>3.5</v>
       </c>
-      <c r="E52" s="5" t="n">
-        <f aca="false">M10</f>
+      <c r="E52" s="0" t="n">
+        <f aca="false">O10</f>
         <v>90</v>
       </c>
-      <c r="F52" s="5" t="n">
-        <f aca="false">N10</f>
+      <c r="F52" s="0" t="n">
+        <f aca="false">P10</f>
         <v>90</v>
       </c>
-      <c r="G52" s="5" t="n">
-        <f aca="false">O10</f>
+      <c r="G52" s="0" t="n">
+        <f aca="false">Q10</f>
         <v>55.5555555555556</v>
       </c>
-      <c r="H52" s="5" t="n">
-        <f aca="false">P10</f>
+      <c r="H52" s="0" t="n">
+        <f aca="false">R10</f>
+        <v>44.4444444444444</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">S10</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="I52" s="5" t="n">
-        <f aca="false">Q10</f>
+      <c r="J52" s="0" t="n">
+        <f aca="false">T10</f>
         <v>79.1666666666667</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="K52" s="0" t="n">
         <f aca="false">H10</f>
         <v>134.187291614</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="L52" s="0" t="n">
         <f aca="false">I10</f>
         <v>174.377812312</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="M52" s="0" t="n">
         <f aca="false">J10</f>
         <v>23.8243151575326</v>
       </c>
-      <c r="M52" s="0" t="n">
+      <c r="N52" s="0" t="n">
         <f aca="false">L10</f>
         <v>23.5563931535324</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">M10</f>
+        <v>5.1256848424674</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">N10</f>
+        <v>5.3936068464676</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">U10</f>
+        <v>0.5</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">V10</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>3</v>
@@ -3521,46 +5361,66 @@
         <f aca="false">E11</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="E53" s="5" t="n">
-        <f aca="false">M11</f>
+      <c r="E53" s="0" t="n">
+        <f aca="false">O11</f>
         <v>100</v>
       </c>
-      <c r="F53" s="5" t="n">
-        <f aca="false">N11</f>
+      <c r="F53" s="0" t="n">
+        <f aca="false">P11</f>
         <v>93.3333333333333</v>
       </c>
-      <c r="G53" s="5" t="n">
-        <f aca="false">O11</f>
+      <c r="G53" s="0" t="n">
+        <f aca="false">Q11</f>
         <v>50</v>
       </c>
-      <c r="H53" s="5" t="n">
-        <f aca="false">P11</f>
+      <c r="H53" s="0" t="n">
+        <f aca="false">R11</f>
+        <v>46.2962962962963</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <f aca="false">S11</f>
         <v>100</v>
       </c>
-      <c r="I53" s="5" t="n">
-        <f aca="false">Q11</f>
+      <c r="J53" s="0" t="n">
+        <f aca="false">T11</f>
         <v>86.1111111111111</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="K53" s="0" t="n">
         <f aca="false">H11</f>
         <v>163.280004789</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="L53" s="0" t="n">
         <f aca="false">I11</f>
         <v>170.678543137667</v>
       </c>
-      <c r="L53" s="0" t="n">
+      <c r="M53" s="0" t="n">
         <f aca="false">J11</f>
         <v>29.8551972087784</v>
       </c>
-      <c r="M53" s="0" t="n">
+      <c r="N53" s="0" t="n">
         <f aca="false">L11</f>
         <v>25.6559945052811</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">M11</f>
+        <v>-0.9051972087784</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">N11</f>
+        <v>3.29400549471893</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">U11</f>
+        <v>0.5</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">V11</f>
+        <v>0.432098765432099</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>4</v>
@@ -3573,46 +5433,66 @@
         <f aca="false">E12</f>
         <v>4.5</v>
       </c>
-      <c r="E54" s="5" t="n">
-        <f aca="false">M12</f>
+      <c r="E54" s="0" t="n">
+        <f aca="false">O12</f>
         <v>100</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <f aca="false">N12</f>
+      <c r="F54" s="0" t="n">
+        <f aca="false">P12</f>
         <v>95</v>
       </c>
-      <c r="G54" s="5" t="n">
-        <f aca="false">O12</f>
+      <c r="G54" s="0" t="n">
+        <f aca="false">Q12</f>
         <v>60</v>
       </c>
-      <c r="H54" s="5" t="n">
-        <f aca="false">P12</f>
+      <c r="H54" s="0" t="n">
+        <f aca="false">R12</f>
+        <v>49.7222222222222</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <f aca="false">S12</f>
         <v>100</v>
       </c>
-      <c r="I54" s="5" t="n">
-        <f aca="false">Q12</f>
+      <c r="J54" s="0" t="n">
+        <f aca="false">T12</f>
         <v>89.5833333333333</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="K54" s="0" t="n">
         <f aca="false">H12</f>
         <v>151.623916431</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="L54" s="0" t="n">
         <f aca="false">I12</f>
         <v>165.914886461</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="M54" s="0" t="n">
         <f aca="false">J12</f>
         <v>26.4637940251438</v>
       </c>
-      <c r="M54" s="0" t="n">
+      <c r="N54" s="0" t="n">
         <f aca="false">L12</f>
         <v>25.8579443852468</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">M12</f>
+        <v>2.4862059748562</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">N12</f>
+        <v>3.09205561475325</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">U12</f>
+        <v>0.6</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">V12</f>
+        <v>0.472361111111111</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>5</v>
@@ -3625,46 +5505,66 @@
         <f aca="false">E13</f>
         <v>4.2</v>
       </c>
-      <c r="E55" s="5" t="n">
-        <f aca="false">M13</f>
+      <c r="E55" s="0" t="n">
+        <f aca="false">O13</f>
         <v>100</v>
       </c>
-      <c r="F55" s="5" t="n">
-        <f aca="false">N13</f>
+      <c r="F55" s="0" t="n">
+        <f aca="false">P13</f>
         <v>96</v>
       </c>
-      <c r="G55" s="5" t="n">
-        <f aca="false">O13</f>
+      <c r="G55" s="0" t="n">
+        <f aca="false">Q13</f>
         <v>40</v>
       </c>
-      <c r="H55" s="5" t="n">
-        <f aca="false">P13</f>
+      <c r="H55" s="0" t="n">
+        <f aca="false">R13</f>
+        <v>47.7777777777778</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <f aca="false">S13</f>
         <v>100</v>
       </c>
-      <c r="I55" s="5" t="n">
-        <f aca="false">Q13</f>
+      <c r="J55" s="0" t="n">
+        <f aca="false">T13</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="K55" s="0" t="n">
         <f aca="false">H13</f>
         <v>181.372779748</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="L55" s="0" t="n">
         <f aca="false">I13</f>
         <v>169.0064651184</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="M55" s="0" t="n">
         <f aca="false">J13</f>
         <v>34.2028795629617</v>
       </c>
-      <c r="M55" s="0" t="n">
+      <c r="N55" s="0" t="n">
         <f aca="false">L13</f>
         <v>27.5269314207897</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">M13</f>
+        <v>-5.2528795629617</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">N13</f>
+        <v>1.42306857921026</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">U13</f>
+        <v>0.4</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">V13</f>
+        <v>0.458666666666667</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>6</v>
@@ -3677,46 +5577,66 @@
         <f aca="false">E14</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="E56" s="5" t="n">
-        <f aca="false">M14</f>
+      <c r="E56" s="0" t="n">
+        <f aca="false">O14</f>
         <v>100</v>
       </c>
-      <c r="F56" s="5" t="n">
-        <f aca="false">N14</f>
+      <c r="F56" s="0" t="n">
+        <f aca="false">P14</f>
         <v>96.6666666666667</v>
       </c>
-      <c r="G56" s="5" t="n">
-        <f aca="false">O14</f>
+      <c r="G56" s="0" t="n">
+        <f aca="false">Q14</f>
         <v>70</v>
       </c>
-      <c r="H56" s="5" t="n">
-        <f aca="false">P14</f>
+      <c r="H56" s="0" t="n">
+        <f aca="false">R14</f>
+        <v>51.4814814814815</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">S14</f>
         <v>100</v>
       </c>
-      <c r="I56" s="5" t="n">
-        <f aca="false">Q14</f>
-        <v>93.0555555555556</v>
-      </c>
       <c r="J56" s="0" t="n">
+        <f aca="false">T14</f>
+        <v>93.0555555555555</v>
+      </c>
+      <c r="K56" s="0" t="n">
         <f aca="false">H14</f>
         <v>121.572318979</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="L56" s="0" t="n">
         <f aca="false">I14</f>
         <v>161.100774095167</v>
       </c>
-      <c r="L56" s="0" t="n">
+      <c r="M56" s="0" t="n">
         <f aca="false">J14</f>
         <v>44.8805684279799</v>
       </c>
-      <c r="M56" s="0" t="n">
+      <c r="N56" s="0" t="n">
         <f aca="false">L14</f>
         <v>30.4192042553214</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false">M14</f>
+        <v>-15.9305684279799</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">N14</f>
+        <v>-1.46920425532143</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">U14</f>
+        <v>0.7</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">V14</f>
+        <v>0.497654320987655</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>7</v>
@@ -3729,46 +5649,66 @@
         <f aca="false">E15</f>
         <v>3.28571428571429</v>
       </c>
-      <c r="E57" s="5" t="n">
-        <f aca="false">M15</f>
-        <v>100</v>
-      </c>
-      <c r="F57" s="5" t="n">
-        <f aca="false">N15</f>
-        <v>97.1428571428571</v>
-      </c>
-      <c r="G57" s="5" t="n">
+      <c r="E57" s="0" t="n">
         <f aca="false">O15</f>
         <v>100</v>
       </c>
-      <c r="H57" s="5" t="n">
+      <c r="F57" s="0" t="n">
         <f aca="false">P15</f>
+        <v>97.1428571428571</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">Q15</f>
         <v>100</v>
       </c>
-      <c r="I57" s="5" t="n">
-        <f aca="false">Q15</f>
-        <v>94.0476190476191</v>
+      <c r="H57" s="0" t="n">
+        <f aca="false">R15</f>
+        <v>58.4126984126984</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <f aca="false">S15</f>
+        <v>100</v>
       </c>
       <c r="J57" s="0" t="n">
+        <f aca="false">T15</f>
+        <v>94.047619047619</v>
+      </c>
+      <c r="K57" s="0" t="n">
         <f aca="false">H15</f>
         <v>90.95703086</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="L57" s="0" t="n">
         <f aca="false">I15</f>
         <v>151.080239347286</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="M57" s="0" t="n">
         <f aca="false">J15</f>
         <v>47.661925134669</v>
       </c>
-      <c r="M57" s="0" t="n">
+      <c r="N57" s="0" t="n">
         <f aca="false">L15</f>
         <v>32.8824500952282</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false">M15</f>
+        <v>-18.711925134669</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">N15</f>
+        <v>-3.93245009522823</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">U15</f>
+        <v>1</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">V15</f>
+        <v>0.567437641723356</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>8</v>
@@ -3781,46 +5721,66 @@
         <f aca="false">E16</f>
         <v>3.125</v>
       </c>
-      <c r="E58" s="5" t="n">
-        <f aca="false">M16</f>
+      <c r="E58" s="0" t="n">
+        <f aca="false">O16</f>
         <v>80</v>
       </c>
-      <c r="F58" s="5" t="n">
-        <f aca="false">N16</f>
+      <c r="F58" s="0" t="n">
+        <f aca="false">P16</f>
         <v>95</v>
       </c>
-      <c r="G58" s="5" t="n">
-        <f aca="false">O16</f>
+      <c r="G58" s="0" t="n">
+        <f aca="false">Q16</f>
         <v>87.5</v>
       </c>
-      <c r="H58" s="5" t="n">
-        <f aca="false">P16</f>
+      <c r="H58" s="0" t="n">
+        <f aca="false">R16</f>
+        <v>62.0486111111111</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <f aca="false">S16</f>
         <v>77.7777777777778</v>
       </c>
-      <c r="I58" s="5" t="n">
-        <f aca="false">Q16</f>
+      <c r="J58" s="0" t="n">
+        <f aca="false">T16</f>
         <v>92.0138888888889</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="K58" s="0" t="n">
         <f aca="false">H16</f>
         <v>124.150051902</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="L58" s="0" t="n">
         <f aca="false">I16</f>
         <v>147.713965916625</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="M58" s="0" t="n">
         <f aca="false">J16</f>
         <v>22.5632727514385</v>
       </c>
-      <c r="M58" s="0" t="n">
+      <c r="N58" s="0" t="n">
         <f aca="false">L16</f>
         <v>31.5925529272545</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="false">M16</f>
+        <v>6.3867272485615</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">N16</f>
+        <v>-2.64255292725451</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">U16</f>
+        <v>0.7</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <f aca="false">V16</f>
+        <v>0.589461805555555</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -3833,46 +5793,66 @@
         <f aca="false">E17</f>
         <v>5</v>
       </c>
-      <c r="E59" s="5" t="n">
-        <f aca="false">M17</f>
+      <c r="E59" s="0" t="n">
+        <f aca="false">O17</f>
         <v>100</v>
       </c>
-      <c r="F59" s="5" t="n">
-        <f aca="false">N17</f>
-        <v>100</v>
-      </c>
-      <c r="G59" s="5" t="n">
-        <f aca="false">O17</f>
-        <v>60</v>
-      </c>
-      <c r="H59" s="5" t="n">
+      <c r="F59" s="0" t="n">
         <f aca="false">P17</f>
         <v>100</v>
       </c>
-      <c r="I59" s="5" t="n">
+      <c r="G59" s="0" t="n">
         <f aca="false">Q17</f>
+        <v>60</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">R17</f>
+        <v>60</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">S17</f>
         <v>100</v>
       </c>
       <c r="J59" s="0" t="n">
+        <f aca="false">T17</f>
+        <v>100</v>
+      </c>
+      <c r="K59" s="0" t="n">
         <f aca="false">H17</f>
         <v>173.852807037</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="L59" s="0" t="n">
         <f aca="false">I17</f>
         <v>173.852807037</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="M59" s="0" t="n">
         <f aca="false">J17</f>
         <v>28.0839650859947</v>
       </c>
-      <c r="M59" s="0" t="n">
+      <c r="N59" s="0" t="n">
         <f aca="false">L17</f>
         <v>28.0839650859947</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="false">M17</f>
+        <v>0.866034914005301</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">N17</f>
+        <v>0.866034914005301</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <f aca="false">U17</f>
+        <v>0.6</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <f aca="false">V17</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -3885,46 +5865,66 @@
         <f aca="false">E18</f>
         <v>6</v>
       </c>
-      <c r="E60" s="5" t="n">
-        <f aca="false">M18</f>
+      <c r="E60" s="0" t="n">
+        <f aca="false">O18</f>
         <v>100</v>
       </c>
-      <c r="F60" s="5" t="n">
-        <f aca="false">N18</f>
-        <v>100</v>
-      </c>
-      <c r="G60" s="5" t="n">
-        <f aca="false">O18</f>
-        <v>50</v>
-      </c>
-      <c r="H60" s="5" t="n">
+      <c r="F60" s="0" t="n">
         <f aca="false">P18</f>
         <v>100</v>
       </c>
-      <c r="I60" s="5" t="n">
+      <c r="G60" s="0" t="n">
         <f aca="false">Q18</f>
+        <v>50</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <f aca="false">R18</f>
+        <v>55</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <f aca="false">S18</f>
         <v>100</v>
       </c>
       <c r="J60" s="0" t="n">
+        <f aca="false">T18</f>
+        <v>100</v>
+      </c>
+      <c r="K60" s="0" t="n">
         <f aca="false">H18</f>
         <v>250.003049038</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="L60" s="0" t="n">
         <f aca="false">I18</f>
         <v>211.9279280375</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="M60" s="0" t="n">
         <f aca="false">J18</f>
         <v>23.1003295075633</v>
       </c>
-      <c r="M60" s="0" t="n">
+      <c r="N60" s="0" t="n">
         <f aca="false">L18</f>
         <v>25.592147296779</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <f aca="false">M18</f>
+        <v>5.8496704924367</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <f aca="false">N18</f>
+        <v>3.357852703221</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <f aca="false">U18</f>
+        <v>0.5</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <f aca="false">V18</f>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>3</v>
@@ -3937,46 +5937,66 @@
         <f aca="false">E19</f>
         <v>7.66666666666667</v>
       </c>
-      <c r="E61" s="5" t="n">
-        <f aca="false">M19</f>
+      <c r="E61" s="0" t="n">
+        <f aca="false">O19</f>
         <v>90</v>
       </c>
-      <c r="F61" s="5" t="n">
-        <f aca="false">N19</f>
+      <c r="F61" s="0" t="n">
+        <f aca="false">P19</f>
         <v>96.6666666666667</v>
       </c>
-      <c r="G61" s="5" t="n">
-        <f aca="false">O19</f>
+      <c r="G61" s="0" t="n">
+        <f aca="false">Q19</f>
         <v>77.7777777777778</v>
       </c>
-      <c r="H61" s="5" t="n">
-        <f aca="false">P19</f>
+      <c r="H61" s="0" t="n">
+        <f aca="false">R19</f>
+        <v>62.5925925925926</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <f aca="false">S19</f>
         <v>87.5</v>
       </c>
-      <c r="I61" s="5" t="n">
-        <f aca="false">Q19</f>
+      <c r="J61" s="0" t="n">
+        <f aca="false">T19</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="K61" s="0" t="n">
         <f aca="false">H19</f>
         <v>193.135607071</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="L61" s="0" t="n">
         <f aca="false">I19</f>
         <v>205.663821048667</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="M61" s="0" t="n">
         <f aca="false">J19</f>
         <v>5.72574241132679</v>
       </c>
-      <c r="M61" s="0" t="n">
+      <c r="N61" s="0" t="n">
         <f aca="false">L19</f>
         <v>18.9700123349616</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <f aca="false">M19</f>
+        <v>23.2242575886732</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <f aca="false">N19</f>
+        <v>9.9799876650384</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <f aca="false">U19</f>
+        <v>0.7</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <f aca="false">V19</f>
+        <v>0.605061728395062</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>4</v>
@@ -3989,46 +6009,66 @@
         <f aca="false">E20</f>
         <v>7.5</v>
       </c>
-      <c r="E62" s="5" t="n">
-        <f aca="false">M20</f>
+      <c r="E62" s="0" t="n">
+        <f aca="false">O20</f>
         <v>100</v>
       </c>
-      <c r="F62" s="5" t="n">
-        <f aca="false">N20</f>
+      <c r="F62" s="0" t="n">
+        <f aca="false">P20</f>
         <v>97.5</v>
       </c>
-      <c r="G62" s="5" t="n">
-        <f aca="false">O20</f>
+      <c r="G62" s="0" t="n">
+        <f aca="false">Q20</f>
         <v>60</v>
       </c>
-      <c r="H62" s="5" t="n">
-        <f aca="false">P20</f>
+      <c r="H62" s="0" t="n">
+        <f aca="false">R20</f>
+        <v>61.9444444444444</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <f aca="false">S20</f>
         <v>100</v>
       </c>
-      <c r="I62" s="5" t="n">
-        <f aca="false">Q20</f>
+      <c r="J62" s="0" t="n">
+        <f aca="false">T20</f>
         <v>96.875</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="K62" s="0" t="n">
         <f aca="false">H20</f>
         <v>128.968972359</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="L62" s="0" t="n">
         <f aca="false">I20</f>
         <v>186.49010887625</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="M62" s="0" t="n">
         <f aca="false">J20</f>
         <v>30.2116057758844</v>
       </c>
-      <c r="M62" s="0" t="n">
+      <c r="N62" s="0" t="n">
         <f aca="false">L20</f>
         <v>21.7804106951923</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <f aca="false">M20</f>
+        <v>-1.2616057758844</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <f aca="false">N20</f>
+        <v>7.1695893048077</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <f aca="false">U20</f>
+        <v>0.6</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <f aca="false">V20</f>
+        <v>0.603958333333333</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>5</v>
@@ -4041,46 +6081,66 @@
         <f aca="false">E21</f>
         <v>6.8</v>
       </c>
-      <c r="E63" s="5" t="n">
-        <f aca="false">M21</f>
+      <c r="E63" s="0" t="n">
+        <f aca="false">O21</f>
         <v>60</v>
       </c>
-      <c r="F63" s="5" t="n">
-        <f aca="false">N21</f>
+      <c r="F63" s="0" t="n">
+        <f aca="false">P21</f>
         <v>90</v>
       </c>
-      <c r="G63" s="5" t="n">
-        <f aca="false">O21</f>
+      <c r="G63" s="0" t="n">
+        <f aca="false">Q21</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="H63" s="5" t="n">
-        <f aca="false">P21</f>
+      <c r="H63" s="0" t="n">
+        <f aca="false">R21</f>
+        <v>56.2222222222222</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <f aca="false">S21</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="I63" s="5" t="n">
-        <f aca="false">Q21</f>
+      <c r="J63" s="0" t="n">
+        <f aca="false">T21</f>
         <v>84.1666666666667</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="K63" s="0" t="n">
         <f aca="false">H21</f>
         <v>106.860203414</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="L63" s="0" t="n">
         <f aca="false">I21</f>
         <v>170.5641277838</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="M63" s="0" t="n">
         <f aca="false">J21</f>
         <v>-3.89490715382565</v>
       </c>
-      <c r="M63" s="0" t="n">
+      <c r="N63" s="0" t="n">
         <f aca="false">L21</f>
         <v>16.6453471253887</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <f aca="false">M21</f>
+        <v>32.8449071538256</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <f aca="false">N21</f>
+        <v>12.3046528746113</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <f aca="false">U21</f>
+        <v>0.2</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <f aca="false">V21</f>
+        <v>0.506</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>6</v>
@@ -4093,46 +6153,66 @@
         <f aca="false">E22</f>
         <v>8.16666666666667</v>
       </c>
-      <c r="E64" s="5" t="n">
-        <f aca="false">M22</f>
+      <c r="E64" s="0" t="n">
+        <f aca="false">O22</f>
         <v>90</v>
       </c>
-      <c r="F64" s="5" t="n">
-        <f aca="false">N22</f>
+      <c r="F64" s="0" t="n">
+        <f aca="false">P22</f>
         <v>90</v>
       </c>
-      <c r="G64" s="5" t="n">
-        <f aca="false">O22</f>
+      <c r="G64" s="0" t="n">
+        <f aca="false">Q22</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="H64" s="5" t="n">
-        <f aca="false">P22</f>
+      <c r="H64" s="0" t="n">
+        <f aca="false">R22</f>
+        <v>57.962962962963</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <f aca="false">S22</f>
         <v>85.7142857142857</v>
       </c>
-      <c r="I64" s="5" t="n">
-        <f aca="false">Q22</f>
+      <c r="J64" s="0" t="n">
+        <f aca="false">T22</f>
         <v>84.4246031746032</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="K64" s="0" t="n">
         <f aca="false">H22</f>
         <v>145.437723158</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="L64" s="0" t="n">
         <f aca="false">I22</f>
         <v>166.3763936795</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="M64" s="0" t="n">
         <f aca="false">J22</f>
         <v>-3.56777213712156</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="N64" s="0" t="n">
         <f aca="false">L22</f>
         <v>13.2764939149703</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <f aca="false">M22</f>
+        <v>32.5177721371216</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <f aca="false">N22</f>
+        <v>15.6735060850297</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <f aca="false">U22</f>
+        <v>0.6</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <f aca="false">V22</f>
+        <v>0.521666666666667</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>7</v>
@@ -4145,46 +6225,66 @@
         <f aca="false">E23</f>
         <v>8.14285714285714</v>
       </c>
-      <c r="E65" s="5" t="n">
-        <f aca="false">M23</f>
+      <c r="E65" s="0" t="n">
+        <f aca="false">O23</f>
         <v>90</v>
       </c>
-      <c r="F65" s="5" t="n">
-        <f aca="false">N23</f>
+      <c r="F65" s="0" t="n">
+        <f aca="false">P23</f>
         <v>90</v>
       </c>
-      <c r="G65" s="5" t="n">
-        <f aca="false">O23</f>
+      <c r="G65" s="0" t="n">
+        <f aca="false">Q23</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="H65" s="5" t="n">
-        <f aca="false">P23</f>
+      <c r="H65" s="0" t="n">
+        <f aca="false">R23</f>
+        <v>59.2063492063492</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <f aca="false">S23</f>
         <v>85.7142857142857</v>
       </c>
-      <c r="I65" s="5" t="n">
-        <f aca="false">Q23</f>
+      <c r="J65" s="0" t="n">
+        <f aca="false">T23</f>
         <v>84.608843537415</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="K65" s="0" t="n">
         <f aca="false">H23</f>
         <v>110.902698938</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="L65" s="0" t="n">
         <f aca="false">I23</f>
         <v>158.451580145</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="M65" s="0" t="n">
         <f aca="false">J23</f>
         <v>17.8719889678834</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="N65" s="0" t="n">
         <f aca="false">L23</f>
         <v>13.9329932082436</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <f aca="false">M23</f>
+        <v>11.0780110321166</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <f aca="false">N23</f>
+        <v>15.0170067917564</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <f aca="false">U23</f>
+        <v>0.6</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <f aca="false">V23</f>
+        <v>0.532857142857143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>8</v>
@@ -4197,46 +6297,66 @@
         <f aca="false">E24</f>
         <v>7.375</v>
       </c>
-      <c r="E66" s="5" t="n">
-        <f aca="false">M24</f>
-        <v>100</v>
-      </c>
-      <c r="F66" s="5" t="n">
-        <f aca="false">N24</f>
-        <v>91.25</v>
-      </c>
-      <c r="G66" s="5" t="n">
+      <c r="E66" s="0" t="n">
         <f aca="false">O24</f>
         <v>100</v>
       </c>
-      <c r="H66" s="5" t="n">
+      <c r="F66" s="0" t="n">
         <f aca="false">P24</f>
+        <v>91.25</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">Q24</f>
         <v>100</v>
       </c>
-      <c r="I66" s="5" t="n">
-        <f aca="false">Q24</f>
+      <c r="H66" s="0" t="n">
+        <f aca="false">R24</f>
+        <v>64.3055555555556</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <f aca="false">S24</f>
+        <v>100</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">T24</f>
         <v>86.5327380952381</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="K66" s="0" t="n">
         <f aca="false">H24</f>
         <v>107.025239417</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="L66" s="0" t="n">
         <f aca="false">I24</f>
         <v>152.023287554</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="M66" s="0" t="n">
         <f aca="false">J24</f>
         <v>44.4112378386793</v>
       </c>
-      <c r="M66" s="0" t="n">
+      <c r="N66" s="0" t="n">
         <f aca="false">L24</f>
         <v>17.7427737870481</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <f aca="false">M24</f>
+        <v>-15.4612378386793</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <f aca="false">N24</f>
+        <v>11.2072262129519</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <f aca="false">U24</f>
+        <v>1</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <f aca="false">V24</f>
+        <v>0.586788194444445</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1</v>
@@ -4249,46 +6369,66 @@
         <f aca="false">E25</f>
         <v>6</v>
       </c>
-      <c r="E67" s="5" t="n">
-        <f aca="false">M25</f>
+      <c r="E67" s="0" t="n">
+        <f aca="false">O25</f>
         <v>80</v>
       </c>
-      <c r="F67" s="5" t="n">
-        <f aca="false">N25</f>
+      <c r="F67" s="0" t="n">
+        <f aca="false">P25</f>
         <v>80</v>
       </c>
-      <c r="G67" s="5" t="n">
-        <f aca="false">O25</f>
+      <c r="G67" s="0" t="n">
+        <f aca="false">Q25</f>
         <v>37.5</v>
       </c>
-      <c r="H67" s="5" t="n">
-        <f aca="false">P25</f>
+      <c r="H67" s="0" t="n">
+        <f aca="false">R25</f>
+        <v>37.5</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <f aca="false">S25</f>
         <v>60</v>
       </c>
-      <c r="I67" s="5" t="n">
-        <f aca="false">Q25</f>
+      <c r="J67" s="0" t="n">
+        <f aca="false">T25</f>
         <v>60</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="K67" s="0" t="n">
         <f aca="false">H25</f>
         <v>270.423616934</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="L67" s="0" t="n">
         <f aca="false">I25</f>
         <v>270.423616934</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="M67" s="0" t="n">
         <f aca="false">J25</f>
         <v>6.9401530440631</v>
       </c>
-      <c r="M67" s="0" t="n">
+      <c r="N67" s="0" t="n">
         <f aca="false">L25</f>
         <v>6.9401530440631</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <f aca="false">M25</f>
+        <v>22.0098469559369</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <f aca="false">N25</f>
+        <v>22.0098469559369</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <f aca="false">U25</f>
+        <v>0.3</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <f aca="false">V25</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -4301,46 +6441,66 @@
         <f aca="false">E26</f>
         <v>6</v>
       </c>
-      <c r="E68" s="5" t="n">
-        <f aca="false">M26</f>
+      <c r="E68" s="0" t="n">
+        <f aca="false">O26</f>
         <v>100</v>
       </c>
-      <c r="F68" s="5" t="n">
-        <f aca="false">N26</f>
+      <c r="F68" s="0" t="n">
+        <f aca="false">P26</f>
         <v>90</v>
       </c>
-      <c r="G68" s="5" t="n">
-        <f aca="false">O26</f>
+      <c r="G68" s="0" t="n">
+        <f aca="false">Q26</f>
         <v>50</v>
       </c>
-      <c r="H68" s="5" t="n">
-        <f aca="false">P26</f>
+      <c r="H68" s="0" t="n">
+        <f aca="false">R26</f>
+        <v>43.75</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <f aca="false">S26</f>
         <v>100</v>
       </c>
-      <c r="I68" s="5" t="n">
-        <f aca="false">Q26</f>
+      <c r="J68" s="0" t="n">
+        <f aca="false">T26</f>
         <v>80</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="K68" s="0" t="n">
         <f aca="false">H26</f>
         <v>147.765968671</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="L68" s="0" t="n">
         <f aca="false">I26</f>
         <v>209.0947928025</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="M68" s="0" t="n">
         <f aca="false">J26</f>
         <v>30.5660269348598</v>
       </c>
-      <c r="M68" s="0" t="n">
+      <c r="N68" s="0" t="n">
         <f aca="false">L26</f>
         <v>18.7530899894615</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <f aca="false">M26</f>
+        <v>-1.6160269348598</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <f aca="false">N26</f>
+        <v>10.1969100105386</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <f aca="false">U26</f>
+        <v>0.5</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <f aca="false">V26</f>
+        <v>0.39375</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>3</v>
@@ -4353,46 +6513,66 @@
         <f aca="false">E27</f>
         <v>6</v>
       </c>
-      <c r="E69" s="5" t="n">
-        <f aca="false">M27</f>
+      <c r="E69" s="0" t="n">
+        <f aca="false">O27</f>
         <v>70</v>
       </c>
-      <c r="F69" s="5" t="n">
-        <f aca="false">N27</f>
+      <c r="F69" s="0" t="n">
+        <f aca="false">P27</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="G69" s="5" t="n">
-        <f aca="false">O27</f>
+      <c r="G69" s="0" t="n">
+        <f aca="false">Q27</f>
         <v>57.1428571428571</v>
       </c>
-      <c r="H69" s="5" t="n">
-        <f aca="false">P27</f>
+      <c r="H69" s="0" t="n">
+        <f aca="false">R27</f>
+        <v>48.2142857142857</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <f aca="false">S27</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="I69" s="5" t="n">
-        <f aca="false">Q27</f>
+      <c r="J69" s="0" t="n">
+        <f aca="false">T27</f>
         <v>75.5555555555556</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="K69" s="0" t="n">
         <f aca="false">H27</f>
         <v>125.123491314</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="L69" s="0" t="n">
         <f aca="false">I27</f>
         <v>181.104358973</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="M69" s="0" t="n">
         <f aca="false">J27</f>
         <v>12.4868993071597</v>
       </c>
-      <c r="M69" s="0" t="n">
+      <c r="N69" s="0" t="n">
         <f aca="false">L27</f>
-        <v>16.6643597620276</v>
+        <v>16.6643597620275</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <f aca="false">M27</f>
+        <v>16.4631006928403</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <f aca="false">N27</f>
+        <v>12.2856402379725</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <f aca="false">U27</f>
+        <v>0.4</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <f aca="false">V27</f>
+        <v>0.401785714285714</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>4</v>
@@ -4405,46 +6585,66 @@
         <f aca="false">E28</f>
         <v>5</v>
       </c>
-      <c r="E70" s="5" t="n">
-        <f aca="false">M28</f>
+      <c r="E70" s="0" t="n">
+        <f aca="false">O28</f>
         <v>80</v>
       </c>
-      <c r="F70" s="5" t="n">
-        <f aca="false">N28</f>
+      <c r="F70" s="0" t="n">
+        <f aca="false">P28</f>
         <v>82.5</v>
       </c>
-      <c r="G70" s="5" t="n">
-        <f aca="false">O28</f>
+      <c r="G70" s="0" t="n">
+        <f aca="false">Q28</f>
         <v>50</v>
       </c>
-      <c r="H70" s="5" t="n">
-        <f aca="false">P28</f>
+      <c r="H70" s="0" t="n">
+        <f aca="false">R28</f>
+        <v>48.6607142857143</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <f aca="false">S28</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="I70" s="5" t="n">
-        <f aca="false">Q28</f>
+      <c r="J70" s="0" t="n">
+        <f aca="false">T28</f>
         <v>73.3333333333333</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="K70" s="0" t="n">
         <f aca="false">H28</f>
         <v>134.096172417</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="L70" s="0" t="n">
         <f aca="false">I28</f>
         <v>169.352312334</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="M70" s="0" t="n">
         <f aca="false">J28</f>
         <v>21.9678333876312</v>
       </c>
-      <c r="M70" s="0" t="n">
+      <c r="N70" s="0" t="n">
         <f aca="false">L28</f>
-        <v>17.9902281684285</v>
+        <v>17.9902281684284</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <f aca="false">M28</f>
+        <v>6.9821666123688</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <f aca="false">N28</f>
+        <v>10.9597718315716</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <f aca="false">U28</f>
+        <v>0.4</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <f aca="false">V28</f>
+        <v>0.401450892857143</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>5</v>
@@ -4457,46 +6657,66 @@
         <f aca="false">E29</f>
         <v>5.4</v>
       </c>
-      <c r="E71" s="5" t="n">
-        <f aca="false">M29</f>
+      <c r="E71" s="0" t="n">
+        <f aca="false">O29</f>
         <v>70</v>
       </c>
-      <c r="F71" s="5" t="n">
-        <f aca="false">N29</f>
+      <c r="F71" s="0" t="n">
+        <f aca="false">P29</f>
         <v>80</v>
       </c>
-      <c r="G71" s="5" t="n">
-        <f aca="false">O29</f>
+      <c r="G71" s="0" t="n">
+        <f aca="false">Q29</f>
         <v>71.4285714285714</v>
       </c>
-      <c r="H71" s="5" t="n">
-        <f aca="false">P29</f>
+      <c r="H71" s="0" t="n">
+        <f aca="false">R29</f>
+        <v>53.2142857142857</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <f aca="false">S29</f>
         <v>62.5</v>
       </c>
-      <c r="I71" s="5" t="n">
-        <f aca="false">Q29</f>
+      <c r="J71" s="0" t="n">
+        <f aca="false">T29</f>
         <v>71.1666666666667</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="K71" s="0" t="n">
         <f aca="false">H29</f>
         <v>193.18420446</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="L71" s="0" t="n">
         <f aca="false">I29</f>
         <v>174.1186907592</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="M71" s="0" t="n">
         <f aca="false">J29</f>
         <v>-1.50208324894171</v>
       </c>
-      <c r="M71" s="0" t="n">
+      <c r="N71" s="0" t="n">
         <f aca="false">L29</f>
         <v>14.0917658849544</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <f aca="false">M29</f>
+        <v>30.4520832489417</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <f aca="false">N29</f>
+        <v>14.8582341150456</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <f aca="false">U29</f>
+        <v>0.5</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <f aca="false">V29</f>
+        <v>0.425714285714286</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>6</v>
@@ -4509,46 +6729,66 @@
         <f aca="false">E30</f>
         <v>4.66666666666667</v>
       </c>
-      <c r="E72" s="5" t="n">
-        <f aca="false">M30</f>
+      <c r="E72" s="0" t="n">
+        <f aca="false">O30</f>
         <v>80</v>
       </c>
-      <c r="F72" s="5" t="n">
-        <f aca="false">N30</f>
+      <c r="F72" s="0" t="n">
+        <f aca="false">P30</f>
         <v>80</v>
       </c>
-      <c r="G72" s="5" t="n">
-        <f aca="false">O30</f>
+      <c r="G72" s="0" t="n">
+        <f aca="false">Q30</f>
         <v>62.5</v>
       </c>
-      <c r="H72" s="5" t="n">
-        <f aca="false">P30</f>
+      <c r="H72" s="0" t="n">
+        <f aca="false">R30</f>
+        <v>54.7619047619048</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <f aca="false">S30</f>
         <v>71.4285714285714</v>
       </c>
-      <c r="I72" s="5" t="n">
-        <f aca="false">Q30</f>
+      <c r="J72" s="0" t="n">
+        <f aca="false">T30</f>
         <v>71.2103174603175</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="K72" s="0" t="n">
         <f aca="false">H30</f>
         <v>110.521336183</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="L72" s="0" t="n">
         <f aca="false">I30</f>
         <v>163.519131663167</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="M72" s="0" t="n">
         <f aca="false">J30</f>
         <v>25.7447843603091</v>
       </c>
-      <c r="M72" s="0" t="n">
+      <c r="N72" s="0" t="n">
         <f aca="false">L30</f>
         <v>16.0339356308469</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <f aca="false">M30</f>
+        <v>3.2052156396909</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <f aca="false">N30</f>
+        <v>12.9160643691531</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <f aca="false">U30</f>
+        <v>0.5</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <f aca="false">V30</f>
+        <v>0.438095238095238</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>7</v>
@@ -4561,46 +6801,66 @@
         <f aca="false">E31</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="E73" s="5" t="n">
-        <f aca="false">M31</f>
+      <c r="E73" s="0" t="n">
+        <f aca="false">O31</f>
         <v>80</v>
       </c>
-      <c r="F73" s="5" t="n">
-        <f aca="false">N31</f>
+      <c r="F73" s="0" t="n">
+        <f aca="false">P31</f>
         <v>80</v>
       </c>
-      <c r="G73" s="5" t="n">
-        <f aca="false">O31</f>
+      <c r="G73" s="0" t="n">
+        <f aca="false">Q31</f>
         <v>87.5</v>
       </c>
-      <c r="H73" s="5" t="n">
-        <f aca="false">P31</f>
+      <c r="H73" s="0" t="n">
+        <f aca="false">R31</f>
+        <v>59.4387755102041</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <f aca="false">S31</f>
         <v>77.7777777777778</v>
       </c>
-      <c r="I73" s="5" t="n">
-        <f aca="false">Q31</f>
+      <c r="J73" s="0" t="n">
+        <f aca="false">T31</f>
         <v>72.1485260770975</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="K73" s="0" t="n">
         <f aca="false">H31</f>
         <v>102.444865672</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="L73" s="0" t="n">
         <f aca="false">I31</f>
         <v>154.794236521571</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="M73" s="0" t="n">
         <f aca="false">J31</f>
         <v>19.4105333451602</v>
       </c>
-      <c r="M73" s="0" t="n">
+      <c r="N73" s="0" t="n">
         <f aca="false">L31</f>
-        <v>16.5163067328917</v>
+        <v>16.5163067328916</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <f aca="false">M31</f>
+        <v>9.5394666548398</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <f aca="false">N31</f>
+        <v>12.4336932671084</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <f aca="false">U31</f>
+        <v>0.7</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <f aca="false">V31</f>
+        <v>0.475510204081633</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>8</v>
@@ -4613,46 +6873,66 @@
         <f aca="false">E32</f>
         <v>4.25</v>
       </c>
-      <c r="E74" s="5" t="n">
-        <f aca="false">M32</f>
+      <c r="E74" s="0" t="n">
+        <f aca="false">O32</f>
         <v>80</v>
       </c>
-      <c r="F74" s="5" t="n">
-        <f aca="false">N32</f>
-        <v>80</v>
-      </c>
-      <c r="G74" s="5" t="n">
-        <f aca="false">O32</f>
-        <v>100</v>
-      </c>
-      <c r="H74" s="5" t="n">
+      <c r="F74" s="0" t="n">
         <f aca="false">P32</f>
         <v>80</v>
       </c>
-      <c r="I74" s="5" t="n">
+      <c r="G74" s="0" t="n">
         <f aca="false">Q32</f>
+        <v>100</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <f aca="false">R32</f>
+        <v>64.5089285714286</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <f aca="false">S32</f>
+        <v>80</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">T32</f>
         <v>73.1299603174603</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="K74" s="0" t="n">
         <f aca="false">H32</f>
         <v>82.690410366</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="L74" s="0" t="n">
         <f aca="false">I32</f>
         <v>145.781258252125</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="M74" s="0" t="n">
         <f aca="false">J32</f>
         <v>27.4383393696821</v>
       </c>
-      <c r="M74" s="0" t="n">
+      <c r="N74" s="0" t="n">
         <f aca="false">L32</f>
-        <v>17.8815608124905</v>
+        <v>17.8815608124904</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <f aca="false">M32</f>
+        <v>1.5116606303179</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <f aca="false">N32</f>
+        <v>11.0684391875096</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <f aca="false">U32</f>
+        <v>0.8</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <f aca="false">V32</f>
+        <v>0.516071428571429</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1</v>
@@ -4665,46 +6945,66 @@
         <f aca="false">E33</f>
         <v>16</v>
       </c>
-      <c r="E75" s="5" t="n">
-        <f aca="false">M33</f>
+      <c r="E75" s="0" t="n">
+        <f aca="false">O33</f>
         <v>60</v>
       </c>
-      <c r="F75" s="5" t="n">
-        <f aca="false">N33</f>
+      <c r="F75" s="0" t="n">
+        <f aca="false">P33</f>
         <v>60</v>
       </c>
-      <c r="G75" s="5" t="n">
-        <f aca="false">O33</f>
+      <c r="G75" s="0" t="n">
+        <f aca="false">Q33</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="H75" s="5" t="n">
-        <f aca="false">P33</f>
+      <c r="H75" s="0" t="n">
+        <f aca="false">R33</f>
+        <v>66.6666666666667</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <f aca="false">S33</f>
         <v>50</v>
       </c>
-      <c r="I75" s="5" t="n">
-        <f aca="false">Q33</f>
+      <c r="J75" s="0" t="n">
+        <f aca="false">T33</f>
         <v>50</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="K75" s="0" t="n">
         <f aca="false">H33</f>
         <v>179.407903164</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="L75" s="0" t="n">
         <f aca="false">I33</f>
         <v>179.407903164</v>
       </c>
-      <c r="L75" s="0" t="n">
+      <c r="M75" s="0" t="n">
         <f aca="false">J33</f>
         <v>-24.8045793213518</v>
       </c>
-      <c r="M75" s="0" t="n">
+      <c r="N75" s="0" t="n">
         <f aca="false">L33</f>
         <v>-24.8045793213518</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <f aca="false">M33</f>
+        <v>53.7545793213518</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <f aca="false">N33</f>
+        <v>53.7545793213518</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <f aca="false">U33</f>
+        <v>0.4</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <f aca="false">V33</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2</v>
@@ -4717,46 +7017,66 @@
         <f aca="false">E34</f>
         <v>12.5</v>
       </c>
-      <c r="E76" s="5" t="n">
-        <f aca="false">M34</f>
+      <c r="E76" s="0" t="n">
+        <f aca="false">O34</f>
         <v>50</v>
       </c>
-      <c r="F76" s="5" t="n">
-        <f aca="false">N34</f>
+      <c r="F76" s="0" t="n">
+        <f aca="false">P34</f>
         <v>55</v>
       </c>
-      <c r="G76" s="5" t="n">
-        <f aca="false">O34</f>
+      <c r="G76" s="0" t="n">
+        <f aca="false">Q34</f>
         <v>60</v>
       </c>
-      <c r="H76" s="5" t="n">
-        <f aca="false">P34</f>
+      <c r="H76" s="0" t="n">
+        <f aca="false">R34</f>
+        <v>63.3333333333334</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <f aca="false">S34</f>
         <v>37.5</v>
       </c>
-      <c r="I76" s="5" t="n">
-        <f aca="false">Q34</f>
+      <c r="J76" s="0" t="n">
+        <f aca="false">T34</f>
         <v>43.75</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="K76" s="0" t="n">
         <f aca="false">H34</f>
         <v>102.464393441</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="L76" s="0" t="n">
         <f aca="false">I34</f>
         <v>140.9361483025</v>
       </c>
-      <c r="L76" s="0" t="n">
+      <c r="M76" s="0" t="n">
         <f aca="false">J34</f>
         <v>-23.6574938157635</v>
       </c>
-      <c r="M76" s="0" t="n">
+      <c r="N76" s="0" t="n">
         <f aca="false">L34</f>
         <v>-24.2310365685576</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <f aca="false">M34</f>
+        <v>52.6074938157635</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <f aca="false">N34</f>
+        <v>53.1810365685577</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <f aca="false">U34</f>
+        <v>0.3</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <f aca="false">V34</f>
+        <v>0.348333333333334</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>3</v>
@@ -4769,46 +7089,66 @@
         <f aca="false">E35</f>
         <v>9.66666666666667</v>
       </c>
-      <c r="E77" s="5" t="n">
-        <f aca="false">M35</f>
+      <c r="E77" s="0" t="n">
+        <f aca="false">O35</f>
         <v>70</v>
       </c>
-      <c r="F77" s="5" t="n">
-        <f aca="false">N35</f>
+      <c r="F77" s="0" t="n">
+        <f aca="false">P35</f>
         <v>60</v>
       </c>
-      <c r="G77" s="5" t="n">
-        <f aca="false">O35</f>
+      <c r="G77" s="0" t="n">
+        <f aca="false">Q35</f>
         <v>71.4285714285714</v>
       </c>
-      <c r="H77" s="5" t="n">
-        <f aca="false">P35</f>
+      <c r="H77" s="0" t="n">
+        <f aca="false">R35</f>
+        <v>66.031746031746</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <f aca="false">S35</f>
         <v>62.5</v>
       </c>
-      <c r="I77" s="5" t="n">
-        <f aca="false">Q35</f>
+      <c r="J77" s="0" t="n">
+        <f aca="false">T35</f>
         <v>50</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="K77" s="0" t="n">
         <f aca="false">H35</f>
         <v>144.195718117</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="L77" s="0" t="n">
         <f aca="false">I35</f>
         <v>142.022671574</v>
       </c>
-      <c r="L77" s="0" t="n">
+      <c r="M77" s="0" t="n">
         <f aca="false">J35</f>
         <v>5.29993661819204</v>
       </c>
-      <c r="M77" s="0" t="n">
+      <c r="N77" s="0" t="n">
         <f aca="false">L35</f>
         <v>-14.3873788396411</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <f aca="false">M35</f>
+        <v>23.650063381808</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <f aca="false">N35</f>
+        <v>43.3373788396411</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <f aca="false">U35</f>
+        <v>0.5</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <f aca="false">V35</f>
+        <v>0.396190476190476</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -4821,46 +7161,66 @@
         <f aca="false">E36</f>
         <v>8</v>
       </c>
-      <c r="E78" s="5" t="n">
-        <f aca="false">M36</f>
+      <c r="E78" s="0" t="n">
+        <f aca="false">O36</f>
         <v>70</v>
       </c>
-      <c r="F78" s="5" t="n">
-        <f aca="false">N36</f>
+      <c r="F78" s="0" t="n">
+        <f aca="false">P36</f>
         <v>62.5</v>
       </c>
-      <c r="G78" s="5" t="n">
-        <f aca="false">O36</f>
+      <c r="G78" s="0" t="n">
+        <f aca="false">Q36</f>
         <v>42.8571428571429</v>
       </c>
-      <c r="H78" s="5" t="n">
-        <f aca="false">P36</f>
+      <c r="H78" s="0" t="n">
+        <f aca="false">R36</f>
+        <v>60.2380952380952</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <f aca="false">S36</f>
         <v>50</v>
       </c>
-      <c r="I78" s="5" t="n">
-        <f aca="false">Q36</f>
+      <c r="J78" s="0" t="n">
+        <f aca="false">T36</f>
         <v>50</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="K78" s="0" t="n">
         <f aca="false">H36</f>
         <v>148.186784668</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="L78" s="0" t="n">
         <f aca="false">I36</f>
         <v>143.5636998475</v>
       </c>
-      <c r="L78" s="0" t="n">
+      <c r="M78" s="0" t="n">
         <f aca="false">J36</f>
         <v>11.3012959135887</v>
       </c>
-      <c r="M78" s="0" t="n">
+      <c r="N78" s="0" t="n">
         <f aca="false">L36</f>
-        <v>-7.96521015133363</v>
+        <v>-7.96521015133364</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <f aca="false">M36</f>
+        <v>17.6487040864113</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <f aca="false">N36</f>
+        <v>36.9152101513336</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <f aca="false">U36</f>
+        <v>0.3</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <f aca="false">V36</f>
+        <v>0.376488095238095</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>5</v>
@@ -4873,46 +7233,66 @@
         <f aca="false">E37</f>
         <v>6.6</v>
       </c>
-      <c r="E79" s="5" t="n">
-        <f aca="false">M37</f>
+      <c r="E79" s="0" t="n">
+        <f aca="false">O37</f>
         <v>90</v>
       </c>
-      <c r="F79" s="5" t="n">
-        <f aca="false">N37</f>
+      <c r="F79" s="0" t="n">
+        <f aca="false">P37</f>
         <v>68</v>
       </c>
-      <c r="G79" s="5" t="n">
-        <f aca="false">O37</f>
+      <c r="G79" s="0" t="n">
+        <f aca="false">Q37</f>
         <v>55.5555555555556</v>
       </c>
-      <c r="H79" s="5" t="n">
-        <f aca="false">P37</f>
+      <c r="H79" s="0" t="n">
+        <f aca="false">R37</f>
+        <v>59.3015873015873</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <f aca="false">S37</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="I79" s="5" t="n">
-        <f aca="false">Q37</f>
+      <c r="J79" s="0" t="n">
+        <f aca="false">T37</f>
         <v>56.6666666666667</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="K79" s="0" t="n">
         <f aca="false">H37</f>
         <v>110.240288882</v>
       </c>
-      <c r="K79" s="0" t="n">
+      <c r="L79" s="0" t="n">
         <f aca="false">I37</f>
         <v>136.8990176544</v>
       </c>
-      <c r="L79" s="0" t="n">
+      <c r="M79" s="0" t="n">
         <f aca="false">J37</f>
         <v>35.8889396872891</v>
       </c>
-      <c r="M79" s="0" t="n">
+      <c r="N79" s="0" t="n">
         <f aca="false">L37</f>
-        <v>0.805619816390925</v>
+        <v>0.805619816390909</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <f aca="false">M37</f>
+        <v>-6.9389396872891</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <f aca="false">N37</f>
+        <v>28.1443801836091</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <f aca="false">U37</f>
+        <v>0.5</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <f aca="false">V37</f>
+        <v>0.403250793650794</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>6</v>
@@ -4925,46 +7305,66 @@
         <f aca="false">E38</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="E80" s="5" t="n">
-        <f aca="false">M38</f>
+      <c r="E80" s="0" t="n">
+        <f aca="false">O38</f>
         <v>100</v>
       </c>
-      <c r="F80" s="5" t="n">
-        <f aca="false">N38</f>
+      <c r="F80" s="0" t="n">
+        <f aca="false">P38</f>
         <v>73.3333333333333</v>
       </c>
-      <c r="G80" s="5" t="n">
-        <f aca="false">O38</f>
+      <c r="G80" s="0" t="n">
+        <f aca="false">Q38</f>
         <v>70</v>
       </c>
-      <c r="H80" s="5" t="n">
-        <f aca="false">P38</f>
+      <c r="H80" s="0" t="n">
+        <f aca="false">R38</f>
+        <v>61.0846560846561</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <f aca="false">S38</f>
         <v>100</v>
       </c>
-      <c r="I80" s="5" t="n">
-        <f aca="false">Q38</f>
+      <c r="J80" s="0" t="n">
+        <f aca="false">T38</f>
         <v>63.8888888888889</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="K80" s="0" t="n">
         <f aca="false">H38</f>
         <v>109.97829521</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="L80" s="0" t="n">
         <f aca="false">I38</f>
         <v>132.412230580333</v>
       </c>
-      <c r="L80" s="0" t="n">
+      <c r="M80" s="0" t="n">
         <f aca="false">J38</f>
         <v>45.8484726366542</v>
       </c>
-      <c r="M80" s="0" t="n">
+      <c r="N80" s="0" t="n">
         <f aca="false">L38</f>
-        <v>8.31276195310147</v>
+        <v>8.31276195310146</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <f aca="false">M38</f>
+        <v>-16.8984726366542</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <f aca="false">N38</f>
+        <v>20.6372380468985</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <f aca="false">U38</f>
+        <v>0.7</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <f aca="false">V38</f>
+        <v>0.447954144620811</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>7</v>
@@ -4977,46 +7377,66 @@
         <f aca="false">E39</f>
         <v>5</v>
       </c>
-      <c r="E81" s="5" t="n">
-        <f aca="false">M39</f>
+      <c r="E81" s="0" t="n">
+        <f aca="false">O39</f>
         <v>90</v>
       </c>
-      <c r="F81" s="5" t="n">
-        <f aca="false">N39</f>
+      <c r="F81" s="0" t="n">
+        <f aca="false">P39</f>
         <v>75.7142857142857</v>
       </c>
-      <c r="G81" s="5" t="n">
-        <f aca="false">O39</f>
+      <c r="G81" s="0" t="n">
+        <f aca="false">Q39</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="H81" s="5" t="n">
-        <f aca="false">P39</f>
+      <c r="H81" s="0" t="n">
+        <f aca="false">R39</f>
+        <v>61.8820861678005</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <f aca="false">S39</f>
         <v>85.7142857142857</v>
       </c>
-      <c r="I81" s="5" t="n">
-        <f aca="false">Q39</f>
-        <v>67.0068027210885</v>
-      </c>
       <c r="J81" s="0" t="n">
+        <f aca="false">T39</f>
+        <v>67.0068027210884</v>
+      </c>
+      <c r="K81" s="0" t="n">
         <f aca="false">H39</f>
         <v>107.499614129</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="L81" s="0" t="n">
         <f aca="false">I39</f>
         <v>128.853285373</v>
       </c>
-      <c r="L81" s="0" t="n">
+      <c r="M81" s="0" t="n">
         <f aca="false">J39</f>
         <v>38.4855805026095</v>
       </c>
-      <c r="M81" s="0" t="n">
+      <c r="N81" s="0" t="n">
         <f aca="false">L39</f>
         <v>12.6231646030312</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <f aca="false">M39</f>
+        <v>-9.5355805026095</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <f aca="false">N39</f>
+        <v>16.3268353969688</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <f aca="false">U39</f>
+        <v>0.6</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <f aca="false">V39</f>
+        <v>0.468535795270489</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>8</v>
@@ -5029,47 +7449,67 @@
         <f aca="false">E40</f>
         <v>4.5</v>
       </c>
-      <c r="E82" s="5" t="n">
-        <f aca="false">M40</f>
+      <c r="E82" s="0" t="n">
+        <f aca="false">O40</f>
         <v>90</v>
       </c>
-      <c r="F82" s="5" t="n">
-        <f aca="false">N40</f>
+      <c r="F82" s="0" t="n">
+        <f aca="false">P40</f>
         <v>77.5</v>
       </c>
-      <c r="G82" s="5" t="n">
-        <f aca="false">O40</f>
+      <c r="G82" s="0" t="n">
+        <f aca="false">Q40</f>
         <v>88.8888888888889</v>
       </c>
-      <c r="H82" s="5" t="n">
-        <f aca="false">P40</f>
+      <c r="H82" s="0" t="n">
+        <f aca="false">R40</f>
+        <v>65.2579365079365</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <f aca="false">S40</f>
         <v>88.8888888888889</v>
       </c>
-      <c r="I82" s="5" t="n">
-        <f aca="false">Q40</f>
+      <c r="J82" s="0" t="n">
+        <f aca="false">T40</f>
         <v>69.7420634920635</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="K82" s="0" t="n">
         <f aca="false">H40</f>
         <v>79.093457855</v>
       </c>
-      <c r="K82" s="0" t="n">
+      <c r="L82" s="0" t="n">
         <f aca="false">I40</f>
         <v>122.63330693325</v>
       </c>
-      <c r="L82" s="0" t="n">
+      <c r="M82" s="0" t="n">
         <f aca="false">J40</f>
         <v>39.6978682087877</v>
       </c>
-      <c r="M82" s="0" t="n">
+      <c r="N82" s="0" t="n">
         <f aca="false">L40</f>
         <v>16.0075025537507</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <f aca="false">M40</f>
+        <v>-10.7478682087877</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <f aca="false">N40</f>
+        <v>12.9424974462493</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <f aca="false">U40</f>
+        <v>0.8</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <f aca="false">V40</f>
+        <v>0.505749007936508</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="T1:AD1"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="Y1:AZ1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5094,143 +7534,143 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="16" min="10" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="16" min="10" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="25" min="19" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="25" min="19" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="34" min="28" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="34" min="28" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="43" min="37" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="43" min="37" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="44" min="44" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="10.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
